--- a/Results/Baseline/Price/Results_world_base_price_Avg.xlsx
+++ b/Results/Baseline/Price/Results_world_base_price_Avg.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285202032373</v>
+        <v>262.0285184034511</v>
       </c>
       <c r="E2">
-        <v>302.6178310284677</v>
+        <v>302.617827822444</v>
       </c>
       <c r="F2">
-        <v>500.2357602805271</v>
+        <v>500.2357540862754</v>
       </c>
       <c r="G2">
-        <v>370.6149290511534</v>
+        <v>370.6149177364533</v>
       </c>
       <c r="H2">
-        <v>949.0097328674848</v>
+        <v>949.0097159154795</v>
       </c>
       <c r="I2">
-        <v>545.2987811474675</v>
+        <v>545.2987510605542</v>
       </c>
       <c r="J2">
-        <v>608.5257293390149</v>
+        <v>608.5256738651177</v>
       </c>
       <c r="K2">
-        <v>699.9599536105036</v>
+        <v>699.9598424085758</v>
       </c>
       <c r="L2">
-        <v>557.9952174054451</v>
+        <v>557.994991823894</v>
       </c>
       <c r="M2">
-        <v>684.8675045700971</v>
+        <v>684.8669460995321</v>
       </c>
       <c r="N2">
-        <v>348.2423953413089</v>
+        <v>348.2408663479948</v>
       </c>
       <c r="O2">
-        <v>388.059148637985</v>
+        <v>388.0554915106979</v>
       </c>
       <c r="P2">
-        <v>780.7474070153663</v>
+        <v>780.7379448815167</v>
       </c>
       <c r="Q2">
-        <v>797.583263947443</v>
+        <v>797.5631360915622</v>
       </c>
       <c r="R2">
-        <v>815.1140055731597</v>
+        <v>815.0829616151387</v>
       </c>
       <c r="S2">
-        <v>1999.886216898762</v>
+        <v>1999.856879037892</v>
       </c>
       <c r="T2">
-        <v>1991.975216209143</v>
+        <v>1991.957199313608</v>
       </c>
       <c r="U2">
-        <v>1994.585523553785</v>
+        <v>1994.569909837423</v>
       </c>
       <c r="V2">
-        <v>2010.027617017507</v>
+        <v>2010.003643439086</v>
       </c>
       <c r="W2">
-        <v>2026.942104099782</v>
+        <v>2026.908554230058</v>
       </c>
       <c r="X2">
-        <v>1874.399272479121</v>
+        <v>1874.353431829231</v>
       </c>
       <c r="Y2">
-        <v>1898.616558841301</v>
+        <v>1898.554958197421</v>
       </c>
       <c r="Z2">
-        <v>1916.712942017909</v>
+        <v>1916.640838811833</v>
       </c>
       <c r="AA2">
-        <v>1938.365374479547</v>
+        <v>1938.279823704991</v>
       </c>
       <c r="AB2">
-        <v>1999.036689973206</v>
+        <v>1998.904945408532</v>
       </c>
       <c r="AC2">
-        <v>749.6068020154831</v>
+        <v>749.3982035467573</v>
       </c>
       <c r="AD2">
-        <v>859.7974483756575</v>
+        <v>859.5012691721963</v>
       </c>
       <c r="AE2">
-        <v>966.5233702545185</v>
+        <v>966.1424451055904</v>
       </c>
       <c r="AF2">
-        <v>957.3728139830775</v>
+        <v>957.0041685002815</v>
       </c>
       <c r="AG2">
-        <v>917.6335855286399</v>
+        <v>917.3028191258347</v>
       </c>
       <c r="AH2">
-        <v>727.7101767995574</v>
+        <v>727.3864319536185</v>
       </c>
       <c r="AI2">
-        <v>702.7287871111226</v>
+        <v>702.4300520293957</v>
       </c>
       <c r="AJ2">
-        <v>670.5977249246499</v>
+        <v>670.3293744873071</v>
       </c>
       <c r="AK2">
-        <v>649.1214789274777</v>
+        <v>648.8736738310537</v>
       </c>
       <c r="AL2">
-        <v>737.4842495375399</v>
+        <v>737.163825272311</v>
       </c>
       <c r="AM2">
-        <v>935.8359724497273</v>
+        <v>935.3499236533418</v>
       </c>
       <c r="AN2">
-        <v>1154.303433512905</v>
+        <v>1153.634458500542</v>
       </c>
       <c r="AO2">
-        <v>1464.763198184934</v>
+        <v>1463.832837533961</v>
       </c>
       <c r="AP2">
-        <v>1862.963080842901</v>
+        <v>1861.69661628684</v>
       </c>
       <c r="AQ2">
-        <v>2067.929821199759</v>
+        <v>2066.491957710196</v>
       </c>
       <c r="AR2">
-        <v>2089.197238441932</v>
+        <v>2087.744922660632</v>
       </c>
       <c r="AS2">
-        <v>2087.733095622032</v>
+        <v>2086.286084092284</v>
       </c>
       <c r="AT2">
-        <v>2064.784036951794</v>
+        <v>2063.361094144094</v>
       </c>
       <c r="AU2">
-        <v>2023.702656706909</v>
+        <v>2022.319736152059</v>
       </c>
       <c r="AV2">
-        <v>2009.575497893373</v>
+        <v>2008.219094133064</v>
       </c>
       <c r="AW2">
-        <v>1981.821689525164</v>
+        <v>1980.498184877016</v>
       </c>
       <c r="AX2">
-        <v>2086.284429557983</v>
+        <v>2085.06300262627</v>
       </c>
       <c r="AY2">
-        <v>1822.99226098345</v>
+        <v>1822.003285671122</v>
       </c>
       <c r="AZ2">
-        <v>1462.190362030135</v>
+        <v>1461.517423610749</v>
       </c>
       <c r="BA2">
-        <v>1309.358529283983</v>
+        <v>1308.824504874712</v>
       </c>
       <c r="BB2">
-        <v>1302.26583115665</v>
+        <v>1301.723903389791</v>
       </c>
       <c r="BC2">
-        <v>1281.278543249839</v>
+        <v>1280.762634892354</v>
       </c>
       <c r="BD2">
-        <v>1212.672769791544</v>
+        <v>1212.222876242579</v>
       </c>
       <c r="BE2">
-        <v>1131.06238544885</v>
+        <v>1130.68916852659</v>
       </c>
       <c r="BF2">
-        <v>1084.089820265171</v>
+        <v>1083.763136649511</v>
       </c>
       <c r="BG2">
-        <v>1056.307339671787</v>
+        <v>1055.988065574086</v>
       </c>
       <c r="BH2">
-        <v>1104.817438139948</v>
+        <v>1104.4626888286</v>
       </c>
       <c r="BI2">
-        <v>1229.974907173445</v>
+        <v>1229.519383216142</v>
       </c>
       <c r="BJ2">
-        <v>1430.899347885019</v>
+        <v>1430.278619403436</v>
       </c>
       <c r="BK2">
-        <v>1683.529483709708</v>
+        <v>1682.699444421189</v>
       </c>
       <c r="BL2">
-        <v>1944.706795223982</v>
+        <v>1943.643382979444</v>
       </c>
       <c r="BM2">
-        <v>2199.323513039165</v>
+        <v>2198.049176517625</v>
       </c>
       <c r="BN2">
-        <v>2351.622278526093</v>
+        <v>2350.224190846102</v>
       </c>
       <c r="BO2">
-        <v>2397.22738599911</v>
+        <v>2395.796523881725</v>
       </c>
       <c r="BP2">
-        <v>2392.713616646265</v>
+        <v>2391.292828194788</v>
       </c>
       <c r="BQ2">
-        <v>2358.763209771071</v>
+        <v>2357.366380793312</v>
       </c>
       <c r="BR2">
-        <v>2332.935156207249</v>
+        <v>2331.567411676157</v>
       </c>
       <c r="BS2">
-        <v>2307.570321790148</v>
+        <v>2306.231570189185</v>
       </c>
       <c r="BT2">
-        <v>2272.640075916901</v>
+        <v>2271.338845420328</v>
       </c>
       <c r="BU2">
-        <v>2188.33248119373</v>
+        <v>2187.111272759304</v>
       </c>
       <c r="BV2">
-        <v>1992.943439982907</v>
+        <v>1991.88616219847</v>
       </c>
       <c r="BW2">
-        <v>1783.628768185739</v>
+        <v>1782.759043785868</v>
       </c>
       <c r="BX2">
-        <v>1658.577372529242</v>
+        <v>1657.823387990645</v>
       </c>
       <c r="BY2">
-        <v>1610.882102149587</v>
+        <v>1610.177695040699</v>
       </c>
       <c r="BZ2">
-        <v>1574.719275620286</v>
+        <v>1574.054274902598</v>
       </c>
       <c r="CA2">
-        <v>1509.957158678198</v>
+        <v>1509.34398346063</v>
       </c>
       <c r="CB2">
-        <v>1461.694454284881</v>
+        <v>1461.130899512865</v>
       </c>
       <c r="CC2">
-        <v>1441.133974219612</v>
+        <v>1440.596185284444</v>
       </c>
       <c r="CD2">
-        <v>1466.214417810621</v>
+        <v>1465.663299041959</v>
       </c>
       <c r="CE2">
-        <v>1552.70967135813</v>
+        <v>1552.092840004744</v>
       </c>
       <c r="CF2">
-        <v>1689.852250903135</v>
+        <v>1689.113524898003</v>
       </c>
       <c r="CG2">
-        <v>1896.375087300586</v>
+        <v>1895.469083581037</v>
       </c>
       <c r="CH2">
-        <v>2130.546445785063</v>
+        <v>2129.449600781142</v>
       </c>
       <c r="CI2">
-        <v>2358.008498599778</v>
+        <v>2356.726446945408</v>
       </c>
       <c r="CJ2">
-        <v>2542.706040605081</v>
+        <v>2541.275135047945</v>
       </c>
       <c r="CK2">
-        <v>2633.829300068092</v>
+        <v>2632.311114239193</v>
       </c>
       <c r="CL2">
-        <v>2674.603152330766</v>
+        <v>2673.05922748977</v>
       </c>
       <c r="CM2">
-        <v>2670.214536709122</v>
+        <v>2668.683405507947</v>
       </c>
       <c r="CN2">
-        <v>2645.677174739413</v>
+        <v>2644.176105956509</v>
       </c>
       <c r="CO2">
-        <v>2613.139834326269</v>
+        <v>2611.675795672891</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.4907216154162</v>
+        <v>16.490721496882</v>
       </c>
       <c r="E3">
-        <v>19.15942835285735</v>
+        <v>19.15942814175727</v>
       </c>
       <c r="F3">
-        <v>32.31320086500591</v>
+        <v>32.31320045753156</v>
       </c>
       <c r="G3">
-        <v>23.60829572066126</v>
+        <v>23.60829497880219</v>
       </c>
       <c r="H3">
-        <v>62.55452880779785</v>
+        <v>62.55452770755029</v>
       </c>
       <c r="I3">
-        <v>35.42818074896121</v>
+        <v>35.42817885003157</v>
       </c>
       <c r="J3">
-        <v>39.56223371570139</v>
+        <v>39.56223044701692</v>
       </c>
       <c r="K3">
-        <v>45.55012038057215</v>
+        <v>45.55011472282668</v>
       </c>
       <c r="L3">
-        <v>36.06020643601949</v>
+        <v>36.06019757810478</v>
       </c>
       <c r="M3">
-        <v>44.508432394896</v>
+        <v>44.50841710804004</v>
       </c>
       <c r="N3">
-        <v>21.75104760766413</v>
+        <v>21.75101938017308</v>
       </c>
       <c r="O3">
-        <v>24.5696774546183</v>
+        <v>24.5696299888898</v>
       </c>
       <c r="P3">
-        <v>50.86128714517638</v>
+        <v>50.86119544776037</v>
       </c>
       <c r="Q3">
-        <v>51.96115311150477</v>
+        <v>51.96100412590457</v>
       </c>
       <c r="R3">
-        <v>53.10819410175783</v>
+        <v>53.10800899018763</v>
       </c>
       <c r="S3">
-        <v>132.6095367531792</v>
+        <v>132.6093404583922</v>
       </c>
       <c r="T3">
-        <v>132.0254879918492</v>
+        <v>132.0252739900321</v>
       </c>
       <c r="U3">
-        <v>132.153312145567</v>
+        <v>132.1530683972617</v>
       </c>
       <c r="V3">
-        <v>133.1494031980365</v>
+        <v>133.1491235844888</v>
       </c>
       <c r="W3">
-        <v>134.2451167682436</v>
+        <v>134.2448003320122</v>
       </c>
       <c r="X3">
-        <v>123.9651836619735</v>
+        <v>123.9648274568147</v>
       </c>
       <c r="Y3">
-        <v>125.5567387662884</v>
+        <v>125.5563351203489</v>
       </c>
       <c r="Z3">
-        <v>126.7341607360623</v>
+        <v>126.7337189247981</v>
       </c>
       <c r="AA3">
-        <v>128.1522108453087</v>
+        <v>128.151730646683</v>
       </c>
       <c r="AB3">
-        <v>132.2105142545934</v>
+        <v>132.2099791961085</v>
       </c>
       <c r="AC3">
-        <v>48.32456954082322</v>
+        <v>48.32396831354333</v>
       </c>
       <c r="AD3">
-        <v>55.7324052950008</v>
+        <v>55.73171959478599</v>
       </c>
       <c r="AE3">
-        <v>62.90562680636852</v>
+        <v>62.90484111956573</v>
       </c>
       <c r="AF3">
-        <v>62.23755125525841</v>
+        <v>62.23667390470306</v>
       </c>
       <c r="AG3">
-        <v>59.49934582624346</v>
+        <v>59.49835965243881</v>
       </c>
       <c r="AH3">
-        <v>46.69598858648434</v>
+        <v>46.69484635985751</v>
       </c>
       <c r="AI3">
-        <v>44.9538617984145</v>
+        <v>44.95249905551455</v>
       </c>
       <c r="AJ3">
-        <v>42.72716746562758</v>
+        <v>42.72550304311518</v>
       </c>
       <c r="AK3">
-        <v>41.22050743756996</v>
+        <v>41.21843234627249</v>
       </c>
       <c r="AL3">
-        <v>47.14532072794326</v>
+        <v>47.14268550770173</v>
       </c>
       <c r="AM3">
-        <v>60.51149566827004</v>
+        <v>60.50817190006713</v>
       </c>
       <c r="AN3">
-        <v>75.23828590283472</v>
+        <v>75.23420722375565</v>
       </c>
       <c r="AO3">
-        <v>96.18903826755619</v>
+        <v>96.18406610916928</v>
       </c>
       <c r="AP3">
-        <v>123.0762845291067</v>
+        <v>123.0703094751224</v>
       </c>
       <c r="AQ3">
-        <v>136.8895808563614</v>
+        <v>136.882865204152</v>
       </c>
       <c r="AR3">
-        <v>138.2725038529279</v>
+        <v>138.2653294064946</v>
       </c>
       <c r="AS3">
-        <v>138.1182312347167</v>
+        <v>138.1107093535213</v>
       </c>
       <c r="AT3">
-        <v>136.5113388254358</v>
+        <v>136.5036014316287</v>
       </c>
       <c r="AU3">
-        <v>133.6788272161604</v>
+        <v>133.6710178462008</v>
       </c>
       <c r="AV3">
-        <v>132.6635397491644</v>
+        <v>132.6557684849659</v>
       </c>
       <c r="AW3">
-        <v>130.7284437393232</v>
+        <v>130.7208532081225</v>
       </c>
       <c r="AX3">
-        <v>137.6340813042117</v>
+        <v>137.6269029387726</v>
       </c>
       <c r="AY3">
-        <v>119.767067138661</v>
+        <v>119.7606086541679</v>
       </c>
       <c r="AZ3">
-        <v>95.3033510112088</v>
+        <v>95.29781878800401</v>
       </c>
       <c r="BA3">
-        <v>84.91123542839452</v>
+        <v>84.90640142401068</v>
       </c>
       <c r="BB3">
-        <v>84.38836725157478</v>
+        <v>84.38399099109699</v>
       </c>
       <c r="BC3">
-        <v>82.91094428685588</v>
+        <v>82.9070067442442</v>
       </c>
       <c r="BD3">
-        <v>78.21092138263953</v>
+        <v>78.20740319780666</v>
       </c>
       <c r="BE3">
-        <v>72.63017817624048</v>
+        <v>72.62701155252316</v>
       </c>
       <c r="BF3">
-        <v>69.39196639450064</v>
+        <v>69.38899779277196</v>
       </c>
       <c r="BG3">
-        <v>67.46040374449382</v>
+        <v>67.45745756778814</v>
       </c>
       <c r="BH3">
-        <v>70.67614692402</v>
+        <v>70.67306302583202</v>
       </c>
       <c r="BI3">
-        <v>79.0771445661892</v>
+        <v>79.07376321444792</v>
       </c>
       <c r="BJ3">
-        <v>92.60400218531647</v>
+        <v>92.60018306669365</v>
       </c>
       <c r="BK3">
-        <v>109.6287725187245</v>
+        <v>109.6244050071068</v>
       </c>
       <c r="BL3">
-        <v>127.238233610009</v>
+        <v>127.233244004365</v>
       </c>
       <c r="BM3">
-        <v>144.393300284115</v>
+        <v>144.3876996259893</v>
       </c>
       <c r="BN3">
-        <v>154.6254649539586</v>
+        <v>154.6193752358521</v>
       </c>
       <c r="BO3">
-        <v>157.6388253415687</v>
+        <v>157.6323899858612</v>
       </c>
       <c r="BP3">
-        <v>157.2613795790888</v>
+        <v>157.2546861045204</v>
       </c>
       <c r="BQ3">
-        <v>154.8945078516351</v>
+        <v>154.8876131139137</v>
       </c>
       <c r="BR3">
-        <v>153.0704874227521</v>
+        <v>153.0634454911471</v>
       </c>
       <c r="BS3">
-        <v>151.278360878538</v>
+        <v>151.2712278122404</v>
       </c>
       <c r="BT3">
-        <v>148.8396693741148</v>
+        <v>148.8325225608465</v>
       </c>
       <c r="BU3">
-        <v>143.060780178672</v>
+        <v>143.0537519881661</v>
       </c>
       <c r="BV3">
-        <v>129.7691586214576</v>
+        <v>129.7624394777157</v>
       </c>
       <c r="BW3">
-        <v>115.5288708519625</v>
+        <v>115.5225488523901</v>
       </c>
       <c r="BX3">
-        <v>106.9901854209306</v>
+        <v>106.9841859187913</v>
       </c>
       <c r="BY3">
-        <v>103.685562639039</v>
+        <v>103.6797961859695</v>
       </c>
       <c r="BZ3">
-        <v>101.1612245105876</v>
+        <v>101.1556688349034</v>
       </c>
       <c r="CA3">
-        <v>96.70432642512543</v>
+        <v>96.69898613293235</v>
       </c>
       <c r="CB3">
-        <v>93.35627015177266</v>
+        <v>93.3511219572665</v>
       </c>
       <c r="CC3">
-        <v>91.88227012088511</v>
+        <v>91.87724870394754</v>
       </c>
       <c r="CD3">
-        <v>93.49599258489721</v>
+        <v>93.49100512940507</v>
       </c>
       <c r="CE3">
-        <v>99.26471371584037</v>
+        <v>99.25965240761683</v>
       </c>
       <c r="CF3">
-        <v>108.4627965361893</v>
+        <v>108.4575541904111</v>
       </c>
       <c r="CG3">
-        <v>122.3465680952178</v>
+        <v>122.3410528489016</v>
       </c>
       <c r="CH3">
-        <v>138.1007014189241</v>
+        <v>138.0948480357599</v>
       </c>
       <c r="CI3">
-        <v>153.4005416816915</v>
+        <v>153.3943259454548</v>
       </c>
       <c r="CJ3">
-        <v>165.8066453357148</v>
+        <v>165.8000928717552</v>
       </c>
       <c r="CK3">
-        <v>171.8875546197427</v>
+        <v>171.8807365129541</v>
       </c>
       <c r="CL3">
-        <v>174.5503973303895</v>
+        <v>174.5433944135976</v>
       </c>
       <c r="CM3">
-        <v>174.1575392243608</v>
+        <v>174.1504085988368</v>
       </c>
       <c r="CN3">
-        <v>172.4015042697429</v>
+        <v>172.3942813682984</v>
       </c>
       <c r="CO3">
-        <v>170.1043667489824</v>
+        <v>170.0970808837188</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474439.87974429</v>
+        <v>26474419.10068802</v>
       </c>
       <c r="E4">
-        <v>26777326.14045737</v>
+        <v>26777289.13431059</v>
       </c>
       <c r="F4">
-        <v>29376395.63318066</v>
+        <v>29376324.20036948</v>
       </c>
       <c r="G4">
-        <v>29467977.58037845</v>
+        <v>29467847.51655655</v>
       </c>
       <c r="H4">
-        <v>26833222.89539192</v>
+        <v>26833029.95119499</v>
       </c>
       <c r="I4">
-        <v>26320193.50608942</v>
+        <v>26319860.29079583</v>
       </c>
       <c r="J4">
-        <v>29028996.97306588</v>
+        <v>29028422.52673142</v>
       </c>
       <c r="K4">
-        <v>32850292.99187069</v>
+        <v>32849295.30546647</v>
       </c>
       <c r="L4">
-        <v>32629017.28860994</v>
+        <v>32627444.45516806</v>
       </c>
       <c r="M4">
-        <v>34712097.46922047</v>
+        <v>34709349.51894218</v>
       </c>
       <c r="N4">
-        <v>37571414.25304347</v>
+        <v>37566248.4268424</v>
       </c>
       <c r="O4">
-        <v>34865674.4885833</v>
+        <v>34856813.8691586</v>
       </c>
       <c r="P4">
-        <v>38736267.40098941</v>
+        <v>38718879.76888672</v>
       </c>
       <c r="Q4">
-        <v>40080643.57623218</v>
+        <v>40052189.14195472</v>
       </c>
       <c r="R4">
-        <v>41409444.71251254</v>
+        <v>41374176.68743816</v>
       </c>
       <c r="S4">
-        <v>47295012.48622099</v>
+        <v>47257929.01914198</v>
       </c>
       <c r="T4">
-        <v>48744970.83267675</v>
+        <v>48704843.86029572</v>
       </c>
       <c r="U4">
-        <v>50202767.43758397</v>
+        <v>50157287.49567945</v>
       </c>
       <c r="V4">
-        <v>51664120.30040238</v>
+        <v>51612146.86297559</v>
       </c>
       <c r="W4">
-        <v>53125743.56488735</v>
+        <v>53067144.81324676</v>
       </c>
       <c r="X4">
-        <v>54108796.49169662</v>
+        <v>54043039.75615025</v>
       </c>
       <c r="Y4">
-        <v>55480881.53651205</v>
+        <v>55406492.86051739</v>
       </c>
       <c r="Z4">
-        <v>56846246.19242863</v>
+        <v>56765101.62434529</v>
       </c>
       <c r="AA4">
-        <v>58211299.86359435</v>
+        <v>58123412.53275659</v>
       </c>
       <c r="AB4">
-        <v>59586337.50712916</v>
+        <v>59488553.78074422</v>
       </c>
       <c r="AC4">
-        <v>55816729.36181147</v>
+        <v>55706975.43188894</v>
       </c>
       <c r="AD4">
-        <v>57213362.17762513</v>
+        <v>57088259.2161717</v>
       </c>
       <c r="AE4">
-        <v>58618827.16670623</v>
+        <v>58475670.5336229</v>
       </c>
       <c r="AF4">
-        <v>60018577.67068709</v>
+        <v>59859487.94455683</v>
       </c>
       <c r="AG4">
-        <v>61426890.01577064</v>
+        <v>61249180.3624984</v>
       </c>
       <c r="AH4">
-        <v>61975366.46070178</v>
+        <v>61770633.98079073</v>
       </c>
       <c r="AI4">
-        <v>63473211.19767756</v>
+        <v>63229796.94424661</v>
       </c>
       <c r="AJ4">
-        <v>65021222.05608074</v>
+        <v>64724314.87610675</v>
       </c>
       <c r="AK4">
-        <v>66638244.79412225</v>
+        <v>66267611.54391932</v>
       </c>
       <c r="AL4">
-        <v>68350180.48560834</v>
+        <v>67877612.9463294</v>
       </c>
       <c r="AM4">
-        <v>70115668.41758931</v>
+        <v>69516996.98067679</v>
       </c>
       <c r="AN4">
-        <v>71921900.77985233</v>
+        <v>71184943.21239161</v>
       </c>
       <c r="AO4">
-        <v>73820696.78886148</v>
+        <v>72918636.74088456</v>
       </c>
       <c r="AP4">
-        <v>75794513.77887446</v>
+        <v>74705811.1003117</v>
       </c>
       <c r="AQ4">
-        <v>77590054.43966578</v>
+        <v>76366028.16245064</v>
       </c>
       <c r="AR4">
-        <v>79182764.79163179</v>
+        <v>77877967.35576367</v>
       </c>
       <c r="AS4">
-        <v>80707910.51137352</v>
+        <v>79342610.82715245</v>
       </c>
       <c r="AT4">
-        <v>82154263.23223753</v>
+        <v>80752255.77823123</v>
       </c>
       <c r="AU4">
-        <v>83515990.1162551</v>
+        <v>82102970.19909325</v>
       </c>
       <c r="AV4">
-        <v>85319182.21976902</v>
+        <v>83914039.99633399</v>
       </c>
       <c r="AW4">
-        <v>86767998.23202938</v>
+        <v>85396084.95150954</v>
       </c>
       <c r="AX4">
-        <v>88136638.54393606</v>
+        <v>86841107.84155798</v>
       </c>
       <c r="AY4">
-        <v>89095906.91823065</v>
+        <v>87935436.25587314</v>
       </c>
       <c r="AZ4">
-        <v>89920625.44319563</v>
+        <v>88934467.69522105</v>
       </c>
       <c r="BA4">
-        <v>90907449.66712722</v>
+        <v>90049710.83507644</v>
       </c>
       <c r="BB4">
-        <v>92052795.69370562</v>
+        <v>91275831.79793599</v>
       </c>
       <c r="BC4">
-        <v>93306598.93358615</v>
+        <v>92607204.42400439</v>
       </c>
       <c r="BD4">
-        <v>94567902.16713525</v>
+        <v>93943437.74286701</v>
       </c>
       <c r="BE4">
-        <v>95866928.68840854</v>
+        <v>95305700.69538681</v>
       </c>
       <c r="BF4">
-        <v>97261223.90634501</v>
+        <v>96734944.58936995</v>
       </c>
       <c r="BG4">
-        <v>98745048.80774896</v>
+        <v>98221236.70132005</v>
       </c>
       <c r="BH4">
-        <v>100423450.1734963</v>
+        <v>99872660.70336917</v>
       </c>
       <c r="BI4">
-        <v>102200534.8686646</v>
+        <v>101593226.7260385</v>
       </c>
       <c r="BJ4">
-        <v>104064469.0671368</v>
+        <v>103374629.8827793</v>
       </c>
       <c r="BK4">
-        <v>105997245.456311</v>
+        <v>105204344.8759528</v>
       </c>
       <c r="BL4">
-        <v>107954075.7134831</v>
+        <v>107044478.2900488</v>
       </c>
       <c r="BM4">
-        <v>109972489.4025769</v>
+        <v>108948915.5074871</v>
       </c>
       <c r="BN4">
-        <v>111905692.8977957</v>
+        <v>110792420.7751017</v>
       </c>
       <c r="BO4">
-        <v>113740675.2968587</v>
+        <v>112565885.0902101</v>
       </c>
       <c r="BP4">
-        <v>115517615.6174259</v>
+        <v>114298144.0863156</v>
       </c>
       <c r="BQ4">
-        <v>117317548.4018248</v>
+        <v>116063912.5507613</v>
       </c>
       <c r="BR4">
-        <v>119135464.7172887</v>
+        <v>117857413.6399772</v>
       </c>
       <c r="BS4">
-        <v>120920494.0088013</v>
+        <v>119628004.545068</v>
       </c>
       <c r="BT4">
-        <v>122658411.7253502</v>
+        <v>121365566.5672352</v>
       </c>
       <c r="BU4">
-        <v>124311451.6877022</v>
+        <v>123043149.1936979</v>
       </c>
       <c r="BV4">
-        <v>125868820.5231773</v>
+        <v>124661445.1426056</v>
       </c>
       <c r="BW4">
-        <v>127420740.8252123</v>
+        <v>126290543.3280762</v>
       </c>
       <c r="BX4">
-        <v>129029981.2293874</v>
+        <v>127961208.4832943</v>
       </c>
       <c r="BY4">
-        <v>130705920.2461923</v>
+        <v>129680107.1303667</v>
       </c>
       <c r="BZ4">
-        <v>132400797.9658022</v>
+        <v>131413019.9416963</v>
       </c>
       <c r="CA4">
-        <v>134127764.9253328</v>
+        <v>133178715.4163709</v>
       </c>
       <c r="CB4">
-        <v>135922188.5379916</v>
+        <v>135007368.6617739</v>
       </c>
       <c r="CC4">
-        <v>137759813.3173458</v>
+        <v>136866717.9982962</v>
       </c>
       <c r="CD4">
-        <v>139658085.3033295</v>
+        <v>138769032.341698</v>
       </c>
       <c r="CE4">
-        <v>141626004.392806</v>
+        <v>140720541.2148604</v>
       </c>
       <c r="CF4">
-        <v>143693999.4271154</v>
+        <v>142751912.5125363</v>
       </c>
       <c r="CG4">
-        <v>145877721.2087953</v>
+        <v>144881854.877055</v>
       </c>
       <c r="CH4">
-        <v>148101051.9333549</v>
+        <v>147039464.7948237</v>
       </c>
       <c r="CI4">
-        <v>150336418.246473</v>
+        <v>149205165.2921427</v>
       </c>
       <c r="CJ4">
-        <v>152550298.9396226</v>
+        <v>151355128.9296443</v>
       </c>
       <c r="CK4">
-        <v>154717066.4123519</v>
+        <v>153472525.246503</v>
       </c>
       <c r="CL4">
-        <v>156905802.0925232</v>
+        <v>155628161.1576654</v>
       </c>
       <c r="CM4">
-        <v>159054471.6550512</v>
+        <v>157755111.0136976</v>
       </c>
       <c r="CN4">
-        <v>161179059.8303362</v>
+        <v>159864885.561071</v>
       </c>
       <c r="CO4">
-        <v>163284700.6047677</v>
+        <v>161961236.8357683</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694916.105421299</v>
+        <v>1694915.880510496</v>
       </c>
       <c r="E5">
-        <v>996189.9321033305</v>
+        <v>996189.5315787235</v>
       </c>
       <c r="F5">
-        <v>499591.7907484078</v>
+        <v>499591.0178038013</v>
       </c>
       <c r="G5">
-        <v>307493.2599189389</v>
+        <v>307491.8536194687</v>
       </c>
       <c r="H5">
-        <v>288591.1028963471</v>
+        <v>288589.021174796</v>
       </c>
       <c r="I5">
-        <v>205742.3327878075</v>
+        <v>205738.7575899401</v>
       </c>
       <c r="J5">
-        <v>169881.5005548165</v>
+        <v>169875.419654826</v>
       </c>
       <c r="K5">
-        <v>220559.767548438</v>
+        <v>220549.5257116948</v>
       </c>
       <c r="L5">
-        <v>398713.862249254</v>
+        <v>398698.7357886778</v>
       </c>
       <c r="M5">
-        <v>353805.6671117795</v>
+        <v>353782.379294222</v>
       </c>
       <c r="N5">
-        <v>448547.0130641734</v>
+        <v>448511.7055296857</v>
       </c>
       <c r="O5">
-        <v>562817.307493813</v>
+        <v>562772.5514551275</v>
       </c>
       <c r="P5">
-        <v>3572067.55922715</v>
+        <v>3572003.813856287</v>
       </c>
       <c r="Q5">
-        <v>3589439.385245066</v>
+        <v>3589353.116130449</v>
       </c>
       <c r="R5">
-        <v>3610855.098870937</v>
+        <v>3610741.039429311</v>
       </c>
       <c r="S5">
-        <v>11350783.54607263</v>
+        <v>11350636.0423383</v>
       </c>
       <c r="T5">
-        <v>11381033.72540856</v>
+        <v>11380846.94086653</v>
       </c>
       <c r="U5">
-        <v>11415682.77688722</v>
+        <v>11415450.97274464</v>
       </c>
       <c r="V5">
-        <v>11454441.42782017</v>
+        <v>11454159.24411783</v>
       </c>
       <c r="W5">
-        <v>11496854.35452941</v>
+        <v>11496517.02643154</v>
       </c>
       <c r="X5">
-        <v>11034509.03322325</v>
+        <v>11034112.46746882</v>
       </c>
       <c r="Y5">
-        <v>11082811.73831197</v>
+        <v>11082352.35246721</v>
       </c>
       <c r="Z5">
-        <v>11133867.45609736</v>
+        <v>11133341.66331111</v>
       </c>
       <c r="AA5">
-        <v>11188464.31433106</v>
+        <v>11187867.49748444</v>
       </c>
       <c r="AB5">
-        <v>11248634.34332768</v>
+        <v>11247959.23128487</v>
       </c>
       <c r="AC5">
-        <v>2307214.787180577</v>
+        <v>2306449.192653113</v>
       </c>
       <c r="AD5">
-        <v>2392029.731127379</v>
+        <v>2391153.7086506</v>
       </c>
       <c r="AE5">
-        <v>2500499.922363202</v>
+        <v>2499482.625067458</v>
       </c>
       <c r="AF5">
-        <v>2643271.072134022</v>
+        <v>2642067.779656544</v>
       </c>
       <c r="AG5">
-        <v>2832675.500452499</v>
+        <v>2831225.405945858</v>
       </c>
       <c r="AH5">
-        <v>1377145.073815875</v>
+        <v>1375370.507293349</v>
       </c>
       <c r="AI5">
-        <v>1697694.255229123</v>
+        <v>1695501.868373016</v>
       </c>
       <c r="AJ5">
-        <v>2099203.314615244</v>
+        <v>2096487.52636262</v>
       </c>
       <c r="AK5">
-        <v>2586652.520692061</v>
+        <v>2583301.248688139</v>
       </c>
       <c r="AL5">
-        <v>3159058.26418673</v>
+        <v>3154960.697109957</v>
       </c>
       <c r="AM5">
-        <v>3808255.968727152</v>
+        <v>3803311.94920562</v>
       </c>
       <c r="AN5">
-        <v>4518145.24437902</v>
+        <v>4512275.622011031</v>
       </c>
       <c r="AO5">
-        <v>5264549.004636288</v>
+        <v>5257706.131523693</v>
       </c>
       <c r="AP5">
-        <v>6015821.039351916</v>
+        <v>6007998.537196478</v>
       </c>
       <c r="AQ5">
-        <v>6734438.577423388</v>
+        <v>6725679.096264409</v>
       </c>
       <c r="AR5">
-        <v>7379757.976793025</v>
+        <v>7370157.174236216</v>
       </c>
       <c r="AS5">
-        <v>7911736.03357805</v>
+        <v>7901441.719232437</v>
       </c>
       <c r="AT5">
-        <v>8295327.430397237</v>
+        <v>8284533.112915921</v>
       </c>
       <c r="AU5">
-        <v>8504840.574269282</v>
+        <v>8493773.263129575</v>
       </c>
       <c r="AV5">
-        <v>9677010.677159762</v>
+        <v>9665914.112896187</v>
       </c>
       <c r="AW5">
-        <v>9839893.166902123</v>
+        <v>9829008.589214649</v>
       </c>
       <c r="AX5">
-        <v>9509178.539142679</v>
+        <v>9498725.507863143</v>
       </c>
       <c r="AY5">
-        <v>9039577.277229032</v>
+        <v>9029736.948922757</v>
       </c>
       <c r="AZ5">
-        <v>8470179.239583058</v>
+        <v>8461081.790823596</v>
       </c>
       <c r="BA5">
-        <v>7845868.864501567</v>
+        <v>7837585.827443898</v>
       </c>
       <c r="BB5">
-        <v>7046511.639760582</v>
+        <v>7039053.412156273</v>
       </c>
       <c r="BC5">
-        <v>6451600.663691469</v>
+        <v>6444918.466468572</v>
       </c>
       <c r="BD5">
-        <v>5934909.595003865</v>
+        <v>5928901.437005792</v>
       </c>
       <c r="BE5">
-        <v>5529604.273485228</v>
+        <v>5524124.90716791</v>
       </c>
       <c r="BF5">
-        <v>5258541.67115541</v>
+        <v>5253416.023102228</v>
       </c>
       <c r="BG5">
-        <v>4967728.218978601</v>
+        <v>4962767.169638635</v>
       </c>
       <c r="BH5">
-        <v>4985119.992458955</v>
+        <v>4980136.485898595</v>
       </c>
       <c r="BI5">
-        <v>5133555.625535622</v>
+        <v>5128378.757365471</v>
       </c>
       <c r="BJ5">
-        <v>5392810.324229487</v>
+        <v>5387295.56529374</v>
       </c>
       <c r="BK5">
-        <v>5738324.342214289</v>
+        <v>5732359.19354442</v>
       </c>
       <c r="BL5">
-        <v>6020328.410248725</v>
+        <v>6013834.106629432</v>
       </c>
       <c r="BM5">
-        <v>6461430.110015824</v>
+        <v>6454360.777769801</v>
       </c>
       <c r="BN5">
-        <v>6914086.377115591</v>
+        <v>6906426.985447424</v>
       </c>
       <c r="BO5">
-        <v>7356574.225947221</v>
+        <v>7348338.073254609</v>
       </c>
       <c r="BP5">
-        <v>7769295.180035677</v>
+        <v>7760521.102078096</v>
       </c>
       <c r="BQ5">
-        <v>8048703.663847759</v>
+        <v>8039452.830839692</v>
       </c>
       <c r="BR5">
-        <v>8353400.033277191</v>
+        <v>8343752.165173239</v>
       </c>
       <c r="BS5">
-        <v>8586087.817679217</v>
+        <v>8576136.8174683</v>
       </c>
       <c r="BT5">
-        <v>8739610.692452623</v>
+        <v>8729459.79979502</v>
       </c>
       <c r="BU5">
-        <v>8810841.870923609</v>
+        <v>8800598.417804809</v>
       </c>
       <c r="BV5">
-        <v>8716623.917559959</v>
+        <v>8706393.735151194</v>
       </c>
       <c r="BW5">
-        <v>8631245.794474334</v>
+        <v>8621127.335674386</v>
       </c>
       <c r="BX5">
-        <v>8480480.314555051</v>
+        <v>8470558.812489027</v>
       </c>
       <c r="BY5">
-        <v>8278584.335924366</v>
+        <v>8268926.430979183</v>
       </c>
       <c r="BZ5">
-        <v>8043246.549584323</v>
+        <v>8033895.83800819</v>
       </c>
       <c r="CA5">
-        <v>7705877.426886356</v>
+        <v>7696851.524038998</v>
       </c>
       <c r="CB5">
-        <v>7464108.962823835</v>
+        <v>7455398.648352249</v>
       </c>
       <c r="CC5">
-        <v>7248812.046590598</v>
+        <v>7240382.787583171</v>
       </c>
       <c r="CD5">
-        <v>7076483.3619978</v>
+        <v>7068279.108861749</v>
       </c>
       <c r="CE5">
-        <v>6959352.362366921</v>
+        <v>6951301.116110928</v>
       </c>
       <c r="CF5">
-        <v>6804776.658698361</v>
+        <v>6796797.052653031</v>
       </c>
       <c r="CG5">
-        <v>6814420.794284022</v>
+        <v>6806428.864783717</v>
       </c>
       <c r="CH5">
-        <v>6885640.132723781</v>
+        <v>6877555.577575674</v>
       </c>
       <c r="CI5">
-        <v>7011590.639559784</v>
+        <v>7003342.091626715</v>
       </c>
       <c r="CJ5">
-        <v>7182333.623148774</v>
+        <v>7173862.687754709</v>
       </c>
       <c r="CK5">
-        <v>7249401.429644561</v>
+        <v>7240665.403631449</v>
       </c>
       <c r="CL5">
-        <v>7472573.349901312</v>
+        <v>7463546.641377614</v>
       </c>
       <c r="CM5">
-        <v>7702092.961819131</v>
+        <v>7692767.310570767</v>
       </c>
       <c r="CN5">
-        <v>7925302.062339719</v>
+        <v>7915685.706219467</v>
       </c>
       <c r="CO5">
-        <v>8130868.542895987</v>
+        <v>8120984.493205855</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>262.0285184034511</v>
+      </c>
+      <c r="E2">
+        <v>564.6463462258951</v>
+      </c>
+      <c r="F2">
+        <v>1064.88210031217</v>
+      </c>
+      <c r="G2">
+        <v>1435.497018048624</v>
+      </c>
+      <c r="H2">
+        <v>2384.506733964104</v>
+      </c>
+      <c r="I2">
+        <v>2929.805485024658</v>
+      </c>
+      <c r="J2">
+        <v>3538.331158889776</v>
+      </c>
+      <c r="K2">
+        <v>4238.291001298352</v>
+      </c>
+      <c r="L2">
+        <v>4796.285993122247</v>
+      </c>
+      <c r="M2">
+        <v>5481.152939221779</v>
+      </c>
+      <c r="N2">
+        <v>5829.393805569774</v>
+      </c>
+      <c r="O2">
+        <v>6217.449297080471</v>
+      </c>
+      <c r="P2">
+        <v>6998.187241961988</v>
+      </c>
+      <c r="Q2">
+        <v>7795.75037805355</v>
+      </c>
+      <c r="R2">
+        <v>8610.833339668688</v>
+      </c>
+      <c r="S2">
+        <v>10610.69021870658</v>
+      </c>
+      <c r="T2">
+        <v>12602.64741802019</v>
+      </c>
+      <c r="U2">
+        <v>14597.21732785761</v>
+      </c>
+      <c r="V2">
+        <v>16607.2209712967</v>
+      </c>
+      <c r="W2">
+        <v>18634.12952552675</v>
+      </c>
+      <c r="X2">
+        <v>20508.48295735598</v>
+      </c>
+      <c r="Y2">
+        <v>22407.0379155534</v>
+      </c>
+      <c r="Z2">
+        <v>24323.67875436524</v>
+      </c>
+      <c r="AA2">
+        <v>26261.95857807023</v>
+      </c>
+      <c r="AB2">
+        <v>28260.86352347876</v>
+      </c>
+      <c r="AC2">
+        <v>29010.26172702551</v>
+      </c>
+      <c r="AD2">
+        <v>29869.76299619771</v>
+      </c>
+      <c r="AE2">
+        <v>30835.9054413033</v>
+      </c>
+      <c r="AF2">
+        <v>31792.90960980358</v>
+      </c>
+      <c r="AG2">
+        <v>32710.21242892942</v>
+      </c>
+      <c r="AH2">
+        <v>33437.59886088303</v>
+      </c>
+      <c r="AI2">
+        <v>34140.02891291243</v>
+      </c>
+      <c r="AJ2">
+        <v>34810.35828739974</v>
+      </c>
+      <c r="AK2">
+        <v>35459.23196123079</v>
+      </c>
+      <c r="AL2">
+        <v>36196.3957865031</v>
+      </c>
+      <c r="AM2">
+        <v>37131.74571015644</v>
+      </c>
+      <c r="AN2">
+        <v>38285.38016865699</v>
+      </c>
+      <c r="AO2">
+        <v>39749.21300619095</v>
+      </c>
+      <c r="AP2">
+        <v>41610.90962247779</v>
+      </c>
+      <c r="AQ2">
+        <v>43677.40158018799</v>
+      </c>
+      <c r="AR2">
+        <v>45765.14650284862</v>
+      </c>
+      <c r="AS2">
+        <v>47851.43258694091</v>
+      </c>
+      <c r="AT2">
+        <v>49914.793681085</v>
+      </c>
+      <c r="AU2">
+        <v>51937.11341723706</v>
+      </c>
+      <c r="AV2">
+        <v>53945.33251137012</v>
+      </c>
+      <c r="AW2">
+        <v>55925.83069624714</v>
+      </c>
+      <c r="AX2">
+        <v>58010.89369887341</v>
+      </c>
+      <c r="AY2">
+        <v>59832.89698454454</v>
+      </c>
+      <c r="AZ2">
+        <v>61294.41440815529</v>
+      </c>
+      <c r="BA2">
+        <v>62603.23891303</v>
+      </c>
+      <c r="BB2">
+        <v>63904.96281641979</v>
+      </c>
+      <c r="BC2">
+        <v>65185.72545131214</v>
+      </c>
+      <c r="BD2">
+        <v>66397.94832755472</v>
+      </c>
+      <c r="BE2">
+        <v>67528.63749608131</v>
+      </c>
+      <c r="BF2">
+        <v>68612.40063273082</v>
+      </c>
+      <c r="BG2">
+        <v>69668.3886983049</v>
+      </c>
+      <c r="BH2">
+        <v>70772.8513871335</v>
+      </c>
+      <c r="BI2">
+        <v>72002.37077034965</v>
+      </c>
+      <c r="BJ2">
+        <v>73432.64938975309</v>
+      </c>
+      <c r="BK2">
+        <v>75115.34883417428</v>
+      </c>
+      <c r="BL2">
+        <v>77058.99221715372</v>
+      </c>
+      <c r="BM2">
+        <v>79257.04139367134</v>
+      </c>
+      <c r="BN2">
+        <v>81607.26558451744</v>
+      </c>
+      <c r="BO2">
+        <v>84003.06210839917</v>
+      </c>
+      <c r="BP2">
+        <v>86394.35493659395</v>
+      </c>
+      <c r="BQ2">
+        <v>88751.72131738727</v>
+      </c>
+      <c r="BR2">
+        <v>91083.28872906342</v>
+      </c>
+      <c r="BS2">
+        <v>93389.5202992526</v>
+      </c>
+      <c r="BT2">
+        <v>95660.85914467293</v>
+      </c>
+      <c r="BU2">
+        <v>97847.97041743223</v>
+      </c>
+      <c r="BV2">
+        <v>99839.85657963069</v>
+      </c>
+      <c r="BW2">
+        <v>101622.6156234166</v>
+      </c>
+      <c r="BX2">
+        <v>103280.4390114072</v>
+      </c>
+      <c r="BY2">
+        <v>104890.6167064479</v>
+      </c>
+      <c r="BZ2">
+        <v>106464.6709813505</v>
+      </c>
+      <c r="CA2">
+        <v>107974.0149648111</v>
+      </c>
+      <c r="CB2">
+        <v>109435.145864324</v>
+      </c>
+      <c r="CC2">
+        <v>110875.7420496084</v>
+      </c>
+      <c r="CD2">
+        <v>112341.4053486504</v>
+      </c>
+      <c r="CE2">
+        <v>113893.4981886551</v>
+      </c>
+      <c r="CF2">
+        <v>115582.6117135531</v>
+      </c>
+      <c r="CG2">
+        <v>117478.0807971342</v>
+      </c>
+      <c r="CH2">
+        <v>119607.5303979153</v>
+      </c>
+      <c r="CI2">
+        <v>121964.2568448607</v>
+      </c>
+      <c r="CJ2">
+        <v>124505.5319799087</v>
+      </c>
+      <c r="CK2">
+        <v>127137.8430941479</v>
+      </c>
+      <c r="CL2">
+        <v>129810.9023216376</v>
+      </c>
+      <c r="CM2">
+        <v>132479.5857271456</v>
+      </c>
+      <c r="CN2">
+        <v>135123.7618331021</v>
+      </c>
+      <c r="CO2">
+        <v>137735.437628775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>16.490721496882</v>
+      </c>
+      <c r="E3">
+        <v>35.65014963863928</v>
+      </c>
+      <c r="F3">
+        <v>67.96335009617084</v>
+      </c>
+      <c r="G3">
+        <v>91.57164507497303</v>
+      </c>
+      <c r="H3">
+        <v>154.1261727825233</v>
+      </c>
+      <c r="I3">
+        <v>189.5543516325549</v>
+      </c>
+      <c r="J3">
+        <v>229.1165820795718</v>
+      </c>
+      <c r="K3">
+        <v>274.6666968023985</v>
+      </c>
+      <c r="L3">
+        <v>310.7268943805033</v>
+      </c>
+      <c r="M3">
+        <v>355.2353114885433</v>
+      </c>
+      <c r="N3">
+        <v>376.9863308687164</v>
+      </c>
+      <c r="O3">
+        <v>401.5559608576062</v>
+      </c>
+      <c r="P3">
+        <v>452.4171563053666</v>
+      </c>
+      <c r="Q3">
+        <v>504.3781604312711</v>
+      </c>
+      <c r="R3">
+        <v>557.4861694214587</v>
+      </c>
+      <c r="S3">
+        <v>690.0955098798509</v>
+      </c>
+      <c r="T3">
+        <v>822.1207838698829</v>
+      </c>
+      <c r="U3">
+        <v>954.2738522671445</v>
+      </c>
+      <c r="V3">
+        <v>1087.422975851633</v>
+      </c>
+      <c r="W3">
+        <v>1221.667776183645</v>
+      </c>
+      <c r="X3">
+        <v>1345.63260364046</v>
+      </c>
+      <c r="Y3">
+        <v>1471.188938760809</v>
+      </c>
+      <c r="Z3">
+        <v>1597.922657685607</v>
+      </c>
+      <c r="AA3">
+        <v>1726.07438833229</v>
+      </c>
+      <c r="AB3">
+        <v>1858.284367528398</v>
+      </c>
+      <c r="AC3">
+        <v>1906.608335841942</v>
+      </c>
+      <c r="AD3">
+        <v>1962.340055436728</v>
+      </c>
+      <c r="AE3">
+        <v>2025.244896556293</v>
+      </c>
+      <c r="AF3">
+        <v>2087.481570460996</v>
+      </c>
+      <c r="AG3">
+        <v>2146.979930113435</v>
+      </c>
+      <c r="AH3">
+        <v>2193.674776473293</v>
+      </c>
+      <c r="AI3">
+        <v>2238.627275528807</v>
+      </c>
+      <c r="AJ3">
+        <v>2281.352778571922</v>
+      </c>
+      <c r="AK3">
+        <v>2322.571210918195</v>
+      </c>
+      <c r="AL3">
+        <v>2369.713896425897</v>
+      </c>
+      <c r="AM3">
+        <v>2430.222068325964</v>
+      </c>
+      <c r="AN3">
+        <v>2505.45627554972</v>
+      </c>
+      <c r="AO3">
+        <v>2601.640341658889</v>
+      </c>
+      <c r="AP3">
+        <v>2724.710651134011</v>
+      </c>
+      <c r="AQ3">
+        <v>2861.593516338163</v>
+      </c>
+      <c r="AR3">
+        <v>2999.858845744658</v>
+      </c>
+      <c r="AS3">
+        <v>3137.969555098179</v>
+      </c>
+      <c r="AT3">
+        <v>3274.473156529808</v>
+      </c>
+      <c r="AU3">
+        <v>3408.144174376008</v>
+      </c>
+      <c r="AV3">
+        <v>3540.799942860974</v>
+      </c>
+      <c r="AW3">
+        <v>3671.520796069097</v>
+      </c>
+      <c r="AX3">
+        <v>3809.14769900787</v>
+      </c>
+      <c r="AY3">
+        <v>3928.908307662037</v>
+      </c>
+      <c r="AZ3">
+        <v>4024.206126450041</v>
+      </c>
+      <c r="BA3">
+        <v>4109.112527874052</v>
+      </c>
+      <c r="BB3">
+        <v>4193.496518865149</v>
+      </c>
+      <c r="BC3">
+        <v>4276.403525609393</v>
+      </c>
+      <c r="BD3">
+        <v>4354.610928807199</v>
+      </c>
+      <c r="BE3">
+        <v>4427.237940359722</v>
+      </c>
+      <c r="BF3">
+        <v>4496.626938152494</v>
+      </c>
+      <c r="BG3">
+        <v>4564.084395720282</v>
+      </c>
+      <c r="BH3">
+        <v>4634.757458746114</v>
+      </c>
+      <c r="BI3">
+        <v>4713.831221960562</v>
+      </c>
+      <c r="BJ3">
+        <v>4806.431405027256</v>
+      </c>
+      <c r="BK3">
+        <v>4916.055810034362</v>
+      </c>
+      <c r="BL3">
+        <v>5043.289054038727</v>
+      </c>
+      <c r="BM3">
+        <v>5187.676753664717</v>
+      </c>
+      <c r="BN3">
+        <v>5342.296128900569</v>
+      </c>
+      <c r="BO3">
+        <v>5499.92851888643</v>
+      </c>
+      <c r="BP3">
+        <v>5657.18320499095</v>
+      </c>
+      <c r="BQ3">
+        <v>5812.070818104864</v>
+      </c>
+      <c r="BR3">
+        <v>5965.134263596011</v>
+      </c>
+      <c r="BS3">
+        <v>6116.405491408252</v>
+      </c>
+      <c r="BT3">
+        <v>6265.238013969099</v>
+      </c>
+      <c r="BU3">
+        <v>6408.291765957265</v>
+      </c>
+      <c r="BV3">
+        <v>6538.054205434981</v>
+      </c>
+      <c r="BW3">
+        <v>6653.576754287371</v>
+      </c>
+      <c r="BX3">
+        <v>6760.560940206162</v>
+      </c>
+      <c r="BY3">
+        <v>6864.240736392131</v>
+      </c>
+      <c r="BZ3">
+        <v>6965.396405227035</v>
+      </c>
+      <c r="CA3">
+        <v>7062.095391359967</v>
+      </c>
+      <c r="CB3">
+        <v>7155.446513317233</v>
+      </c>
+      <c r="CC3">
+        <v>7247.323762021181</v>
+      </c>
+      <c r="CD3">
+        <v>7340.814767150587</v>
+      </c>
+      <c r="CE3">
+        <v>7440.074419558204</v>
+      </c>
+      <c r="CF3">
+        <v>7548.531973748615</v>
+      </c>
+      <c r="CG3">
+        <v>7670.873026597516</v>
+      </c>
+      <c r="CH3">
+        <v>7808.967874633277</v>
+      </c>
+      <c r="CI3">
+        <v>7962.362200578731</v>
+      </c>
+      <c r="CJ3">
+        <v>8128.162293450487</v>
+      </c>
+      <c r="CK3">
+        <v>8300.043029963441</v>
+      </c>
+      <c r="CL3">
+        <v>8474.586424377039</v>
+      </c>
+      <c r="CM3">
+        <v>8648.736832975876</v>
+      </c>
+      <c r="CN3">
+        <v>8821.131114344174</v>
+      </c>
+      <c r="CO3">
+        <v>8991.228195227894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26474419.10068802</v>
+      </c>
+      <c r="E4">
+        <v>53251708.23499861</v>
+      </c>
+      <c r="F4">
+        <v>82628032.43536809</v>
+      </c>
+      <c r="G4">
+        <v>112095879.9519247</v>
+      </c>
+      <c r="H4">
+        <v>138928909.9031197</v>
+      </c>
+      <c r="I4">
+        <v>165248770.1939155</v>
+      </c>
+      <c r="J4">
+        <v>194277192.7206469</v>
+      </c>
+      <c r="K4">
+        <v>227126488.0261134</v>
+      </c>
+      <c r="L4">
+        <v>259753932.4812815</v>
+      </c>
+      <c r="M4">
+        <v>294463282.0002236</v>
+      </c>
+      <c r="N4">
+        <v>332029530.427066</v>
+      </c>
+      <c r="O4">
+        <v>366886344.2962246</v>
+      </c>
+      <c r="P4">
+        <v>405605224.0651113</v>
+      </c>
+      <c r="Q4">
+        <v>445657413.2070661</v>
+      </c>
+      <c r="R4">
+        <v>487031589.8945042</v>
+      </c>
+      <c r="S4">
+        <v>534289518.9136462</v>
+      </c>
+      <c r="T4">
+        <v>582994362.7739419</v>
+      </c>
+      <c r="U4">
+        <v>633151650.2696214</v>
+      </c>
+      <c r="V4">
+        <v>684763797.132597</v>
+      </c>
+      <c r="W4">
+        <v>737830941.9458437</v>
+      </c>
+      <c r="X4">
+        <v>791873981.7019939</v>
+      </c>
+      <c r="Y4">
+        <v>847280474.5625113</v>
+      </c>
+      <c r="Z4">
+        <v>904045576.1868566</v>
+      </c>
+      <c r="AA4">
+        <v>962168988.7196132</v>
+      </c>
+      <c r="AB4">
+        <v>1021657542.500357</v>
+      </c>
+      <c r="AC4">
+        <v>1077364517.932246</v>
+      </c>
+      <c r="AD4">
+        <v>1134452777.148418</v>
+      </c>
+      <c r="AE4">
+        <v>1192928447.682041</v>
+      </c>
+      <c r="AF4">
+        <v>1252787935.626598</v>
+      </c>
+      <c r="AG4">
+        <v>1314037115.989096</v>
+      </c>
+      <c r="AH4">
+        <v>1375807749.969887</v>
+      </c>
+      <c r="AI4">
+        <v>1439037546.914133</v>
+      </c>
+      <c r="AJ4">
+        <v>1503761861.79024</v>
+      </c>
+      <c r="AK4">
+        <v>1570029473.334159</v>
+      </c>
+      <c r="AL4">
+        <v>1637907086.280489</v>
+      </c>
+      <c r="AM4">
+        <v>1707424083.261166</v>
+      </c>
+      <c r="AN4">
+        <v>1778609026.473557</v>
+      </c>
+      <c r="AO4">
+        <v>1851527663.214442</v>
+      </c>
+      <c r="AP4">
+        <v>1926233474.314754</v>
+      </c>
+      <c r="AQ4">
+        <v>2002599502.477204</v>
+      </c>
+      <c r="AR4">
+        <v>2080477469.832968</v>
+      </c>
+      <c r="AS4">
+        <v>2159820080.66012</v>
+      </c>
+      <c r="AT4">
+        <v>2240572336.438351</v>
+      </c>
+      <c r="AU4">
+        <v>2322675306.637444</v>
+      </c>
+      <c r="AV4">
+        <v>2406589346.633779</v>
+      </c>
+      <c r="AW4">
+        <v>2491985431.585288</v>
+      </c>
+      <c r="AX4">
+        <v>2578826539.426846</v>
+      </c>
+      <c r="AY4">
+        <v>2666761975.682719</v>
+      </c>
+      <c r="AZ4">
+        <v>2755696443.37794</v>
+      </c>
+      <c r="BA4">
+        <v>2845746154.213017</v>
+      </c>
+      <c r="BB4">
+        <v>2937021986.010952</v>
+      </c>
+      <c r="BC4">
+        <v>3029629190.434957</v>
+      </c>
+      <c r="BD4">
+        <v>3123572628.177824</v>
+      </c>
+      <c r="BE4">
+        <v>3218878328.873211</v>
+      </c>
+      <c r="BF4">
+        <v>3315613273.462581</v>
+      </c>
+      <c r="BG4">
+        <v>3413834510.163901</v>
+      </c>
+      <c r="BH4">
+        <v>3513707170.86727</v>
+      </c>
+      <c r="BI4">
+        <v>3615300397.593308</v>
+      </c>
+      <c r="BJ4">
+        <v>3718675027.476088</v>
+      </c>
+      <c r="BK4">
+        <v>3823879372.35204</v>
+      </c>
+      <c r="BL4">
+        <v>3930923850.642089</v>
+      </c>
+      <c r="BM4">
+        <v>4039872766.149576</v>
+      </c>
+      <c r="BN4">
+        <v>4150665186.924678</v>
+      </c>
+      <c r="BO4">
+        <v>4263231072.014888</v>
+      </c>
+      <c r="BP4">
+        <v>4377529216.101203</v>
+      </c>
+      <c r="BQ4">
+        <v>4493593128.651964</v>
+      </c>
+      <c r="BR4">
+        <v>4611450542.291942</v>
+      </c>
+      <c r="BS4">
+        <v>4731078546.837009</v>
+      </c>
+      <c r="BT4">
+        <v>4852444113.404244</v>
+      </c>
+      <c r="BU4">
+        <v>4975487262.597942</v>
+      </c>
+      <c r="BV4">
+        <v>5100148707.740548</v>
+      </c>
+      <c r="BW4">
+        <v>5226439251.068624</v>
+      </c>
+      <c r="BX4">
+        <v>5354400459.551919</v>
+      </c>
+      <c r="BY4">
+        <v>5484080566.682285</v>
+      </c>
+      <c r="BZ4">
+        <v>5615493586.623981</v>
+      </c>
+      <c r="CA4">
+        <v>5748672302.040352</v>
+      </c>
+      <c r="CB4">
+        <v>5883679670.702126</v>
+      </c>
+      <c r="CC4">
+        <v>6020546388.700421</v>
+      </c>
+      <c r="CD4">
+        <v>6159315421.042119</v>
+      </c>
+      <c r="CE4">
+        <v>6300035962.256979</v>
+      </c>
+      <c r="CF4">
+        <v>6442787874.769515</v>
+      </c>
+      <c r="CG4">
+        <v>6587669729.64657</v>
+      </c>
+      <c r="CH4">
+        <v>6734709194.441394</v>
+      </c>
+      <c r="CI4">
+        <v>6883914359.733537</v>
+      </c>
+      <c r="CJ4">
+        <v>7035269488.663181</v>
+      </c>
+      <c r="CK4">
+        <v>7188742013.909684</v>
+      </c>
+      <c r="CL4">
+        <v>7344370175.067349</v>
+      </c>
+      <c r="CM4">
+        <v>7502125286.081047</v>
+      </c>
+      <c r="CN4">
+        <v>7661990171.642118</v>
+      </c>
+      <c r="CO4">
+        <v>7823951408.477887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1694915.880510496</v>
+      </c>
+      <c r="E5">
+        <v>2691105.412089219</v>
+      </c>
+      <c r="F5">
+        <v>3190696.42989302</v>
+      </c>
+      <c r="G5">
+        <v>3498188.283512489</v>
+      </c>
+      <c r="H5">
+        <v>3786777.304687285</v>
+      </c>
+      <c r="I5">
+        <v>3992516.062277225</v>
+      </c>
+      <c r="J5">
+        <v>4162391.481932051</v>
+      </c>
+      <c r="K5">
+        <v>4382941.007643746</v>
+      </c>
+      <c r="L5">
+        <v>4781639.743432424</v>
+      </c>
+      <c r="M5">
+        <v>5135422.122726646</v>
+      </c>
+      <c r="N5">
+        <v>5583933.828256332</v>
+      </c>
+      <c r="O5">
+        <v>6146706.37971146</v>
+      </c>
+      <c r="P5">
+        <v>9718710.193567747</v>
+      </c>
+      <c r="Q5">
+        <v>13308063.3096982</v>
+      </c>
+      <c r="R5">
+        <v>16918804.34912751</v>
+      </c>
+      <c r="S5">
+        <v>28269440.39146581</v>
+      </c>
+      <c r="T5">
+        <v>39650287.33233234</v>
+      </c>
+      <c r="U5">
+        <v>51065738.30507697</v>
+      </c>
+      <c r="V5">
+        <v>62519897.5491948</v>
+      </c>
+      <c r="W5">
+        <v>74016414.57562634</v>
+      </c>
+      <c r="X5">
+        <v>85050527.04309517</v>
+      </c>
+      <c r="Y5">
+        <v>96132879.39556238</v>
+      </c>
+      <c r="Z5">
+        <v>107266221.0588735</v>
+      </c>
+      <c r="AA5">
+        <v>118454088.5563579</v>
+      </c>
+      <c r="AB5">
+        <v>129702047.7876428</v>
+      </c>
+      <c r="AC5">
+        <v>132008496.9802959</v>
+      </c>
+      <c r="AD5">
+        <v>134399650.6889465</v>
+      </c>
+      <c r="AE5">
+        <v>136899133.314014</v>
+      </c>
+      <c r="AF5">
+        <v>139541201.0936705</v>
+      </c>
+      <c r="AG5">
+        <v>142372426.4996164</v>
+      </c>
+      <c r="AH5">
+        <v>143747797.0069097</v>
+      </c>
+      <c r="AI5">
+        <v>145443298.8752827</v>
+      </c>
+      <c r="AJ5">
+        <v>147539786.4016454</v>
+      </c>
+      <c r="AK5">
+        <v>150123087.6503335</v>
+      </c>
+      <c r="AL5">
+        <v>153278048.3474435</v>
+      </c>
+      <c r="AM5">
+        <v>157081360.2966491</v>
+      </c>
+      <c r="AN5">
+        <v>161593635.9186601</v>
+      </c>
+      <c r="AO5">
+        <v>166851342.0501838</v>
+      </c>
+      <c r="AP5">
+        <v>172859340.5873803</v>
+      </c>
+      <c r="AQ5">
+        <v>179585019.6836447</v>
+      </c>
+      <c r="AR5">
+        <v>186955176.8578809</v>
+      </c>
+      <c r="AS5">
+        <v>194856618.5771134</v>
+      </c>
+      <c r="AT5">
+        <v>203141151.6900293</v>
+      </c>
+      <c r="AU5">
+        <v>211634924.9531589</v>
+      </c>
+      <c r="AV5">
+        <v>221300839.066055</v>
+      </c>
+      <c r="AW5">
+        <v>231129847.6552697</v>
+      </c>
+      <c r="AX5">
+        <v>240628573.1631328</v>
+      </c>
+      <c r="AY5">
+        <v>249658310.1120556</v>
+      </c>
+      <c r="AZ5">
+        <v>258119391.9028792</v>
+      </c>
+      <c r="BA5">
+        <v>265956977.7303231</v>
+      </c>
+      <c r="BB5">
+        <v>272996031.1424794</v>
+      </c>
+      <c r="BC5">
+        <v>279440949.6089479</v>
+      </c>
+      <c r="BD5">
+        <v>285369851.0459538</v>
+      </c>
+      <c r="BE5">
+        <v>290893975.9531217</v>
+      </c>
+      <c r="BF5">
+        <v>296147391.9762239</v>
+      </c>
+      <c r="BG5">
+        <v>301110159.1458625</v>
+      </c>
+      <c r="BH5">
+        <v>306090295.6317611</v>
+      </c>
+      <c r="BI5">
+        <v>311218674.3891266</v>
+      </c>
+      <c r="BJ5">
+        <v>316605969.9544203</v>
+      </c>
+      <c r="BK5">
+        <v>322338329.1479648</v>
+      </c>
+      <c r="BL5">
+        <v>328352163.2545942</v>
+      </c>
+      <c r="BM5">
+        <v>334806524.032364</v>
+      </c>
+      <c r="BN5">
+        <v>341712951.0178114</v>
+      </c>
+      <c r="BO5">
+        <v>349061289.091066</v>
+      </c>
+      <c r="BP5">
+        <v>356821810.1931441</v>
+      </c>
+      <c r="BQ5">
+        <v>364861263.0239838</v>
+      </c>
+      <c r="BR5">
+        <v>373205015.189157</v>
+      </c>
+      <c r="BS5">
+        <v>381781152.0066253</v>
+      </c>
+      <c r="BT5">
+        <v>390510611.8064203</v>
+      </c>
+      <c r="BU5">
+        <v>399311210.2242252</v>
+      </c>
+      <c r="BV5">
+        <v>408017603.9593763</v>
+      </c>
+      <c r="BW5">
+        <v>416638731.2950507</v>
+      </c>
+      <c r="BX5">
+        <v>425109290.1075398</v>
+      </c>
+      <c r="BY5">
+        <v>433378216.538519</v>
+      </c>
+      <c r="BZ5">
+        <v>441412112.3765271</v>
+      </c>
+      <c r="CA5">
+        <v>449108963.9005661</v>
+      </c>
+      <c r="CB5">
+        <v>456564362.5489184</v>
+      </c>
+      <c r="CC5">
+        <v>463804745.3365015</v>
+      </c>
+      <c r="CD5">
+        <v>470873024.4453633</v>
+      </c>
+      <c r="CE5">
+        <v>477824325.5614742</v>
+      </c>
+      <c r="CF5">
+        <v>484621122.6141272</v>
+      </c>
+      <c r="CG5">
+        <v>491427551.4789109</v>
+      </c>
+      <c r="CH5">
+        <v>498305107.0564866</v>
+      </c>
+      <c r="CI5">
+        <v>505308449.1481133</v>
+      </c>
+      <c r="CJ5">
+        <v>512482311.835868</v>
+      </c>
+      <c r="CK5">
+        <v>519722977.2394994</v>
+      </c>
+      <c r="CL5">
+        <v>527186523.8808771</v>
+      </c>
+      <c r="CM5">
+        <v>534879291.1914479</v>
+      </c>
+      <c r="CN5">
+        <v>542794976.8976673</v>
+      </c>
+      <c r="CO5">
+        <v>550915961.3908732</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Price/Results_world_base_price_Avg.xlsx
+++ b/Results/Baseline/Price/Results_world_base_price_Avg.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285184034511</v>
+        <v>1072.353295692877</v>
       </c>
       <c r="E2">
-        <v>302.617827822444</v>
+        <v>1397.697139652291</v>
       </c>
       <c r="F2">
-        <v>500.2357540862754</v>
+        <v>1396.973433067987</v>
       </c>
       <c r="G2">
-        <v>370.6149177364533</v>
+        <v>1327.492088360183</v>
       </c>
       <c r="H2">
-        <v>949.0097159154795</v>
+        <v>1780.456358358066</v>
       </c>
       <c r="I2">
-        <v>545.2987510605542</v>
+        <v>1284.475738561879</v>
       </c>
       <c r="J2">
-        <v>608.5256738651177</v>
+        <v>2324.134751137541</v>
       </c>
       <c r="K2">
-        <v>699.9598424085758</v>
+        <v>2310.501438880546</v>
       </c>
       <c r="L2">
-        <v>557.994991823894</v>
+        <v>2055.882519252133</v>
       </c>
       <c r="M2">
-        <v>684.8669460995321</v>
+        <v>1894.954773564368</v>
       </c>
       <c r="N2">
-        <v>348.2408663479948</v>
+        <v>4053.663396661204</v>
       </c>
       <c r="O2">
-        <v>388.0554915106979</v>
+        <v>2460.661291829873</v>
       </c>
       <c r="P2">
-        <v>780.7379448815167</v>
+        <v>4931.980183032959</v>
       </c>
       <c r="Q2">
-        <v>797.5631360915622</v>
+        <v>5322.746308280972</v>
       </c>
       <c r="R2">
-        <v>815.0829616151387</v>
+        <v>5718.948163903574</v>
       </c>
       <c r="S2">
-        <v>1999.856879037892</v>
+        <v>12504.22923500617</v>
       </c>
       <c r="T2">
-        <v>1991.957199313608</v>
+        <v>13388.45517853614</v>
       </c>
       <c r="U2">
-        <v>1994.569909837423</v>
+        <v>14282.28293506517</v>
       </c>
       <c r="V2">
-        <v>2010.003643439086</v>
+        <v>15192.95664085129</v>
       </c>
       <c r="W2">
-        <v>2026.908554230058</v>
+        <v>16117.03699934117</v>
       </c>
       <c r="X2">
-        <v>1874.353431829231</v>
+        <v>16195.65189935051</v>
       </c>
       <c r="Y2">
-        <v>1898.554958197421</v>
+        <v>17084.61295307845</v>
       </c>
       <c r="Z2">
-        <v>1916.640838811833</v>
+        <v>17980.92796577579</v>
       </c>
       <c r="AA2">
-        <v>1938.279823704991</v>
+        <v>18896.01182563855</v>
       </c>
       <c r="AB2">
-        <v>1998.904945408532</v>
+        <v>19837.00846169442</v>
       </c>
       <c r="AC2">
-        <v>749.3982035467573</v>
+        <v>9275.086105605396</v>
       </c>
       <c r="AD2">
-        <v>859.5012691721963</v>
+        <v>9533.119275881128</v>
       </c>
       <c r="AE2">
-        <v>966.1424451055904</v>
+        <v>9864.238343084698</v>
       </c>
       <c r="AF2">
-        <v>957.0041685002815</v>
+        <v>10184.78184359486</v>
       </c>
       <c r="AG2">
-        <v>917.3028191258347</v>
+        <v>10559.65986495835</v>
       </c>
       <c r="AH2">
-        <v>727.3864319536185</v>
+        <v>6771.844248497736</v>
       </c>
       <c r="AI2">
-        <v>702.4300520293957</v>
+        <v>6835.328737233244</v>
       </c>
       <c r="AJ2">
-        <v>670.3293744873071</v>
+        <v>7166.653630388532</v>
       </c>
       <c r="AK2">
-        <v>648.8736738310537</v>
+        <v>7759.365586117876</v>
       </c>
       <c r="AL2">
-        <v>737.163825272311</v>
+        <v>8336.521686970196</v>
       </c>
       <c r="AM2">
-        <v>935.3499236533418</v>
+        <v>11044.80528350616</v>
       </c>
       <c r="AN2">
-        <v>1153.634458500542</v>
+        <v>12442.06697199235</v>
       </c>
       <c r="AO2">
-        <v>1463.832837533961</v>
+        <v>14379.0299320976</v>
       </c>
       <c r="AP2">
-        <v>1861.69661628684</v>
+        <v>16878.58812623761</v>
       </c>
       <c r="AQ2">
-        <v>2066.491957710196</v>
+        <v>18669.92427242796</v>
       </c>
       <c r="AR2">
-        <v>2087.744922660632</v>
+        <v>22981.65623021605</v>
       </c>
       <c r="AS2">
-        <v>2086.286084092284</v>
+        <v>23971.97168452634</v>
       </c>
       <c r="AT2">
-        <v>2063.361094144094</v>
+        <v>24803.61248919325</v>
       </c>
       <c r="AU2">
-        <v>2022.319736152059</v>
+        <v>25483.44040652322</v>
       </c>
       <c r="AV2">
-        <v>2008.219094133064</v>
+        <v>26173.45731289014</v>
       </c>
       <c r="AW2">
-        <v>1980.498184877016</v>
+        <v>27414.9644531517</v>
       </c>
       <c r="AX2">
-        <v>2085.06300262627</v>
+        <v>27139.54990487311</v>
       </c>
       <c r="AY2">
-        <v>1822.003285671122</v>
+        <v>25378.43152791445</v>
       </c>
       <c r="AZ2">
-        <v>1461.517423610749</v>
+        <v>22518.23480241663</v>
       </c>
       <c r="BA2">
-        <v>1308.824504874712</v>
+        <v>21099.1018723922</v>
       </c>
       <c r="BB2">
-        <v>1301.723903389791</v>
+        <v>20217.09392681785</v>
       </c>
       <c r="BC2">
-        <v>1280.762634892354</v>
+        <v>20081.39785158183</v>
       </c>
       <c r="BD2">
-        <v>1212.222876242579</v>
+        <v>19440.8232660682</v>
       </c>
       <c r="BE2">
-        <v>1130.68916852659</v>
+        <v>18461.30617091317</v>
       </c>
       <c r="BF2">
-        <v>1083.763136649511</v>
+        <v>18140.54227987246</v>
       </c>
       <c r="BG2">
-        <v>1055.988065574086</v>
+        <v>17964.14614733345</v>
       </c>
       <c r="BH2">
-        <v>1104.4626888286</v>
+        <v>18815.95098912665</v>
       </c>
       <c r="BI2">
-        <v>1229.519383216142</v>
+        <v>20124.16996000818</v>
       </c>
       <c r="BJ2">
-        <v>1430.278619403436</v>
+        <v>21920.0972538397</v>
       </c>
       <c r="BK2">
-        <v>1682.699444421189</v>
+        <v>23883.42918527942</v>
       </c>
       <c r="BL2">
-        <v>1943.643382979444</v>
+        <v>25624.38184170144</v>
       </c>
       <c r="BM2">
-        <v>2198.049176517625</v>
+        <v>27955.05584152362</v>
       </c>
       <c r="BN2">
-        <v>2350.224190846102</v>
+        <v>30355.93089493489</v>
       </c>
       <c r="BO2">
-        <v>2395.796523881725</v>
+        <v>32612.143639919</v>
       </c>
       <c r="BP2">
-        <v>2391.292828194788</v>
+        <v>34147.46806554257</v>
       </c>
       <c r="BQ2">
-        <v>2357.366380793312</v>
+        <v>34892.16074314556</v>
       </c>
       <c r="BR2">
-        <v>2331.567411676157</v>
+        <v>35675.76156091435</v>
       </c>
       <c r="BS2">
-        <v>2306.231570189185</v>
+        <v>36312.81387946699</v>
       </c>
       <c r="BT2">
-        <v>2271.338845420328</v>
+        <v>36540.97807313462</v>
       </c>
       <c r="BU2">
-        <v>2187.111272759304</v>
+        <v>35912.15542662673</v>
       </c>
       <c r="BV2">
-        <v>1991.88616219847</v>
+        <v>34210.80945549223</v>
       </c>
       <c r="BW2">
-        <v>1782.759043785868</v>
+        <v>32529.36717246641</v>
       </c>
       <c r="BX2">
-        <v>1657.823387990645</v>
+        <v>31344.27356768801</v>
       </c>
       <c r="BY2">
-        <v>1610.177695040699</v>
+        <v>30717.492451748</v>
       </c>
       <c r="BZ2">
-        <v>1574.054274902598</v>
+        <v>30313.56317724246</v>
       </c>
       <c r="CA2">
-        <v>1509.34398346063</v>
+        <v>29662.33263712017</v>
       </c>
       <c r="CB2">
-        <v>1461.130899512865</v>
+        <v>29247.41611902954</v>
       </c>
       <c r="CC2">
-        <v>1440.596185284444</v>
+        <v>29176.67620260823</v>
       </c>
       <c r="CD2">
-        <v>1465.663299041959</v>
+        <v>29607.27423579896</v>
       </c>
       <c r="CE2">
-        <v>1552.092840004744</v>
+        <v>30601.95737523384</v>
       </c>
       <c r="CF2">
-        <v>1689.113524898003</v>
+        <v>31816.08333783284</v>
       </c>
       <c r="CG2">
-        <v>1895.469083581037</v>
+        <v>33590.36956283372</v>
       </c>
       <c r="CH2">
-        <v>2129.449600781142</v>
+        <v>35525.68044240409</v>
       </c>
       <c r="CI2">
-        <v>2356.726446945408</v>
+        <v>37560.84226680001</v>
       </c>
       <c r="CJ2">
-        <v>2541.275135047945</v>
+        <v>39721.31812145641</v>
       </c>
       <c r="CK2">
-        <v>2632.311114239193</v>
+        <v>41447.36136154674</v>
       </c>
       <c r="CL2">
-        <v>2673.05922748977</v>
+        <v>43256.71896185465</v>
       </c>
       <c r="CM2">
-        <v>2668.683405507947</v>
+        <v>44575.47876289459</v>
       </c>
       <c r="CN2">
-        <v>2644.176105956509</v>
+        <v>45448.62083812641</v>
       </c>
       <c r="CO2">
-        <v>2611.675795672891</v>
+        <v>46048.37099333721</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.490721496882</v>
+        <v>70.90986674581129</v>
       </c>
       <c r="E3">
-        <v>19.15942814175727</v>
+        <v>92.70278889285014</v>
       </c>
       <c r="F3">
-        <v>32.31320045753156</v>
+        <v>92.53592100340813</v>
       </c>
       <c r="G3">
-        <v>23.60829497880219</v>
+        <v>87.86820869455813</v>
       </c>
       <c r="H3">
-        <v>62.55452770755029</v>
+        <v>118.388925745917</v>
       </c>
       <c r="I3">
-        <v>35.42817885003157</v>
+        <v>85.06524538016033</v>
       </c>
       <c r="J3">
-        <v>39.56223044701692</v>
+        <v>154.780099737735</v>
       </c>
       <c r="K3">
-        <v>45.55011472282668</v>
+        <v>153.7122243550158</v>
       </c>
       <c r="L3">
-        <v>36.06019757810478</v>
+        <v>136.6564609713427</v>
       </c>
       <c r="M3">
-        <v>44.50841710804004</v>
+        <v>125.7707567801391</v>
       </c>
       <c r="N3">
-        <v>21.75101938017308</v>
+        <v>270.6692715567877</v>
       </c>
       <c r="O3">
-        <v>24.5696299888898</v>
+        <v>163.8156462334101</v>
       </c>
       <c r="P3">
-        <v>50.86119544776037</v>
+        <v>329.677715304205</v>
       </c>
       <c r="Q3">
-        <v>51.96100412590457</v>
+        <v>355.8957023605491</v>
       </c>
       <c r="R3">
-        <v>53.10800899018763</v>
+        <v>382.4819432097663</v>
       </c>
       <c r="S3">
-        <v>132.6093404583922</v>
+        <v>838.0278466014588</v>
       </c>
       <c r="T3">
-        <v>132.0252739900321</v>
+        <v>897.3685178277857</v>
       </c>
       <c r="U3">
-        <v>132.1530683972617</v>
+        <v>957.3590677420815</v>
       </c>
       <c r="V3">
-        <v>133.1491235844888</v>
+        <v>1018.490120539966</v>
       </c>
       <c r="W3">
-        <v>134.2448003320122</v>
+        <v>1080.528740472025</v>
       </c>
       <c r="X3">
-        <v>123.9648274568147</v>
+        <v>1085.794511646095</v>
       </c>
       <c r="Y3">
-        <v>125.5563351203489</v>
+        <v>1145.502348267015</v>
       </c>
       <c r="Z3">
-        <v>126.7337189247981</v>
+        <v>1205.70770915395</v>
       </c>
       <c r="AA3">
-        <v>128.151730646683</v>
+        <v>1267.183154441805</v>
       </c>
       <c r="AB3">
-        <v>132.2099791961085</v>
+        <v>1330.412182986863</v>
       </c>
       <c r="AC3">
-        <v>48.32396831354333</v>
+        <v>621.1985195898754</v>
       </c>
       <c r="AD3">
-        <v>55.73171959478599</v>
+        <v>638.5488554479952</v>
       </c>
       <c r="AE3">
-        <v>62.90484111956573</v>
+        <v>660.8456762928698</v>
       </c>
       <c r="AF3">
-        <v>62.23667390470306</v>
+        <v>682.422895335002</v>
       </c>
       <c r="AG3">
-        <v>59.49835965243881</v>
+        <v>707.6746822420349</v>
       </c>
       <c r="AH3">
-        <v>46.69484635985751</v>
+        <v>453.3396361093756</v>
       </c>
       <c r="AI3">
-        <v>44.95249905551455</v>
+        <v>457.6081354805468</v>
       </c>
       <c r="AJ3">
-        <v>42.72550304311518</v>
+        <v>480.0081600911428</v>
       </c>
       <c r="AK3">
-        <v>41.21843234627249</v>
+        <v>520.0974170709027</v>
       </c>
       <c r="AL3">
-        <v>47.14268550770173</v>
+        <v>559.1228278818074</v>
       </c>
       <c r="AM3">
-        <v>60.50817190006713</v>
+        <v>741.44349093606</v>
       </c>
       <c r="AN3">
-        <v>75.23420722375565</v>
+        <v>835.9481830414524</v>
       </c>
       <c r="AO3">
-        <v>96.18406610916928</v>
+        <v>966.9967312735023</v>
       </c>
       <c r="AP3">
-        <v>123.0703094751224</v>
+        <v>1136.142738305746</v>
       </c>
       <c r="AQ3">
-        <v>136.882865204152</v>
+        <v>1257.332871099269</v>
       </c>
       <c r="AR3">
-        <v>138.2653294064946</v>
+        <v>1547.341236426806</v>
       </c>
       <c r="AS3">
-        <v>138.1107093535213</v>
+        <v>1614.230413981845</v>
       </c>
       <c r="AT3">
-        <v>136.5036014316287</v>
+        <v>1670.38873630978</v>
       </c>
       <c r="AU3">
-        <v>133.6710178462008</v>
+        <v>1716.283780975303</v>
       </c>
       <c r="AV3">
-        <v>132.6557684849659</v>
+        <v>1762.887879199278</v>
       </c>
       <c r="AW3">
-        <v>130.7208532081225</v>
+        <v>1846.431853840175</v>
       </c>
       <c r="AX3">
-        <v>137.6269029387726</v>
+        <v>1827.673911503933</v>
       </c>
       <c r="AY3">
-        <v>119.7606086541679</v>
+        <v>1708.317761236439</v>
       </c>
       <c r="AZ3">
-        <v>95.29781878800401</v>
+        <v>1514.541806018261</v>
       </c>
       <c r="BA3">
-        <v>84.90640142401068</v>
+        <v>1418.362096448643</v>
       </c>
       <c r="BB3">
-        <v>84.38399099109699</v>
+        <v>1359.065567103709</v>
       </c>
       <c r="BC3">
-        <v>82.9070067442442</v>
+        <v>1349.810748506305</v>
       </c>
       <c r="BD3">
-        <v>78.20740319780666</v>
+        <v>1306.356401910909</v>
       </c>
       <c r="BE3">
-        <v>72.62701155252316</v>
+        <v>1239.935515800363</v>
       </c>
       <c r="BF3">
-        <v>69.38899779277196</v>
+        <v>1218.11297772793</v>
       </c>
       <c r="BG3">
-        <v>67.45745756778814</v>
+        <v>1206.417535671681</v>
       </c>
       <c r="BH3">
-        <v>70.67306302583202</v>
+        <v>1263.977904764851</v>
       </c>
       <c r="BI3">
-        <v>79.07376321444792</v>
+        <v>1352.429611262309</v>
       </c>
       <c r="BJ3">
-        <v>92.60018306669365</v>
+        <v>1473.894053936709</v>
       </c>
       <c r="BK3">
-        <v>109.6244050071068</v>
+        <v>1606.68297235925</v>
       </c>
       <c r="BL3">
-        <v>127.233244004365</v>
+        <v>1724.605074738328</v>
       </c>
       <c r="BM3">
-        <v>144.3876996259893</v>
+        <v>1882.259855108728</v>
       </c>
       <c r="BN3">
-        <v>154.6193752358521</v>
+        <v>2044.668617500133</v>
       </c>
       <c r="BO3">
-        <v>157.6323899858612</v>
+        <v>2197.28360902241</v>
       </c>
       <c r="BP3">
-        <v>157.2546861045204</v>
+        <v>2301.083408328889</v>
       </c>
       <c r="BQ3">
-        <v>154.8876131139137</v>
+        <v>2351.446861022297</v>
       </c>
       <c r="BR3">
-        <v>153.0634454911471</v>
+        <v>2404.35144782877</v>
       </c>
       <c r="BS3">
-        <v>151.2712278122404</v>
+        <v>2447.341800696939</v>
       </c>
       <c r="BT3">
-        <v>148.8325225608465</v>
+        <v>2462.652793845159</v>
       </c>
       <c r="BU3">
-        <v>143.0537519881661</v>
+        <v>2419.938559546268</v>
       </c>
       <c r="BV3">
-        <v>129.7624394777157</v>
+        <v>2304.725226753129</v>
       </c>
       <c r="BW3">
-        <v>115.5225488523901</v>
+        <v>2190.743655232592</v>
       </c>
       <c r="BX3">
-        <v>106.9841859187913</v>
+        <v>2110.381505542022</v>
       </c>
       <c r="BY3">
-        <v>103.6797961859695</v>
+        <v>2067.83303792916</v>
       </c>
       <c r="BZ3">
-        <v>101.1556688349034</v>
+        <v>2040.379778055001</v>
       </c>
       <c r="CA3">
-        <v>96.69898613293235</v>
+        <v>1996.291591903694</v>
       </c>
       <c r="CB3">
-        <v>93.3511219572665</v>
+        <v>1968.090636429818</v>
       </c>
       <c r="CC3">
-        <v>91.87724870394754</v>
+        <v>1963.194559786398</v>
       </c>
       <c r="CD3">
-        <v>93.49100512940507</v>
+        <v>1992.244949814728</v>
       </c>
       <c r="CE3">
-        <v>99.25965240761683</v>
+        <v>2059.489729470041</v>
       </c>
       <c r="CF3">
-        <v>108.4575541904111</v>
+        <v>2141.728168387722</v>
       </c>
       <c r="CG3">
-        <v>122.3410528489016</v>
+        <v>2261.747425583881</v>
       </c>
       <c r="CH3">
-        <v>138.0948480357599</v>
+        <v>2392.663632017865</v>
       </c>
       <c r="CI3">
-        <v>153.3943259454548</v>
+        <v>2530.335533286583</v>
       </c>
       <c r="CJ3">
-        <v>165.8000928717552</v>
+        <v>2676.489578730066</v>
       </c>
       <c r="CK3">
-        <v>171.8807365129541</v>
+        <v>2793.443353917377</v>
       </c>
       <c r="CL3">
-        <v>174.5433944135976</v>
+        <v>2915.814238814573</v>
       </c>
       <c r="CM3">
-        <v>174.1504085988368</v>
+        <v>3004.960830063435</v>
       </c>
       <c r="CN3">
-        <v>172.3942813682984</v>
+        <v>3063.930414496388</v>
       </c>
       <c r="CO3">
-        <v>170.0970808837188</v>
+        <v>3104.387872088808</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474419.10068802</v>
+        <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>26777289.13431059</v>
+        <v>1458847.879811725</v>
       </c>
       <c r="F4">
-        <v>29376324.20036948</v>
+        <v>1273552.690059891</v>
       </c>
       <c r="G4">
-        <v>29467847.51655655</v>
+        <v>1477271.487194401</v>
       </c>
       <c r="H4">
-        <v>26833029.95119499</v>
+        <v>1623372.793654721</v>
       </c>
       <c r="I4">
-        <v>26319860.29079583</v>
+        <v>1542884.02783523</v>
       </c>
       <c r="J4">
-        <v>29028422.52673142</v>
+        <v>1677431.625865404</v>
       </c>
       <c r="K4">
-        <v>32849295.30546647</v>
+        <v>1538631.721325026</v>
       </c>
       <c r="L4">
-        <v>32627444.45516806</v>
+        <v>1528319.5471378</v>
       </c>
       <c r="M4">
-        <v>34709349.51894218</v>
+        <v>2038432.693862041</v>
       </c>
       <c r="N4">
-        <v>37566248.4268424</v>
+        <v>1934421.818324195</v>
       </c>
       <c r="O4">
-        <v>34856813.8691586</v>
+        <v>1916171.638708076</v>
       </c>
       <c r="P4">
-        <v>38718879.76888672</v>
+        <v>9931654.514407182</v>
       </c>
       <c r="Q4">
-        <v>40052189.14195472</v>
+        <v>9982465.359213078</v>
       </c>
       <c r="R4">
-        <v>41374176.68743816</v>
+        <v>10022509.87590604</v>
       </c>
       <c r="S4">
-        <v>47257929.01914198</v>
+        <v>31280029.97942882</v>
       </c>
       <c r="T4">
-        <v>48704843.86029572</v>
+        <v>31344626.77930965</v>
       </c>
       <c r="U4">
-        <v>50157287.49567945</v>
+        <v>31420237.15299325</v>
       </c>
       <c r="V4">
-        <v>51612146.86297559</v>
+        <v>31505779.04499743</v>
       </c>
       <c r="W4">
-        <v>53067144.81324676</v>
+        <v>31599814.86725895</v>
       </c>
       <c r="X4">
-        <v>54043039.75615025</v>
+        <v>32550200.28778163</v>
       </c>
       <c r="Y4">
-        <v>55406492.86051739</v>
+        <v>32661151.70540509</v>
       </c>
       <c r="Z4">
-        <v>56765101.62434529</v>
+        <v>32769552.52923948</v>
       </c>
       <c r="AA4">
-        <v>58123412.53275659</v>
+        <v>32888023.09975641</v>
       </c>
       <c r="AB4">
-        <v>59488553.78074422</v>
+        <v>33019294.74949114</v>
       </c>
       <c r="AC4">
-        <v>55706975.43188894</v>
+        <v>9079457.612295114</v>
       </c>
       <c r="AD4">
-        <v>57088259.2161717</v>
+        <v>9247070.58511411</v>
       </c>
       <c r="AE4">
-        <v>58475670.5336229</v>
+        <v>9446939.357818577</v>
       </c>
       <c r="AF4">
-        <v>59859487.94455683</v>
+        <v>9637455.455195384</v>
       </c>
       <c r="AG4">
-        <v>61249180.3624984</v>
+        <v>9882154.111520421</v>
       </c>
       <c r="AH4">
-        <v>61770633.98079073</v>
+        <v>2634323.570915136</v>
       </c>
       <c r="AI4">
-        <v>63229796.94424661</v>
+        <v>2885447.367921304</v>
       </c>
       <c r="AJ4">
-        <v>64724314.87610675</v>
+        <v>3304988.719040094</v>
       </c>
       <c r="AK4">
-        <v>66267611.54391932</v>
+        <v>3911197.833559745</v>
       </c>
       <c r="AL4">
-        <v>67877612.9463294</v>
+        <v>4681553.961913035</v>
       </c>
       <c r="AM4">
-        <v>69516996.98067679</v>
+        <v>9105684.330564845</v>
       </c>
       <c r="AN4">
-        <v>71184943.21239161</v>
+        <v>10368193.67080337</v>
       </c>
       <c r="AO4">
-        <v>72918636.74088456</v>
+        <v>11839568.705865</v>
       </c>
       <c r="AP4">
-        <v>74705811.1003117</v>
+        <v>13507128.50963258</v>
       </c>
       <c r="AQ4">
-        <v>76366028.16245064</v>
+        <v>14784976.509483</v>
       </c>
       <c r="AR4">
-        <v>77877967.35576367</v>
+        <v>20653876.71854816</v>
       </c>
       <c r="AS4">
-        <v>79342610.82715245</v>
+        <v>21342530.71641023</v>
       </c>
       <c r="AT4">
-        <v>80752255.77823123</v>
+        <v>21830689.52832256</v>
       </c>
       <c r="AU4">
-        <v>82102970.19909325</v>
+        <v>22093059.94668864</v>
       </c>
       <c r="AV4">
-        <v>83914039.99633399</v>
+        <v>22170531.1667136</v>
       </c>
       <c r="AW4">
-        <v>85396084.95150954</v>
+        <v>23341898.95564277</v>
       </c>
       <c r="AX4">
-        <v>86841107.84155798</v>
+        <v>22768814.25020155</v>
       </c>
       <c r="AY4">
-        <v>87935436.25587314</v>
+        <v>21644827.10673215</v>
       </c>
       <c r="AZ4">
-        <v>88934467.69522105</v>
+        <v>20143463.35062772</v>
       </c>
       <c r="BA4">
-        <v>90049710.83507644</v>
+        <v>19027080.04110075</v>
       </c>
       <c r="BB4">
-        <v>91275831.79793599</v>
+        <v>17369308.54592894</v>
       </c>
       <c r="BC4">
-        <v>92607204.42400439</v>
+        <v>16660688.03706451</v>
       </c>
       <c r="BD4">
-        <v>93943437.74286701</v>
+        <v>15975363.0991944</v>
       </c>
       <c r="BE4">
-        <v>95305700.69538681</v>
+        <v>15431512.13334324</v>
       </c>
       <c r="BF4">
-        <v>96734944.58936995</v>
+        <v>15107660.25662894</v>
       </c>
       <c r="BG4">
-        <v>98221236.70132005</v>
+        <v>14516619.75764696</v>
       </c>
       <c r="BH4">
-        <v>99872660.70336917</v>
+        <v>14718915.83360998</v>
       </c>
       <c r="BI4">
-        <v>101593226.7260385</v>
+        <v>15316709.55019009</v>
       </c>
       <c r="BJ4">
-        <v>103374629.8827793</v>
+        <v>16244716.82958021</v>
       </c>
       <c r="BK4">
-        <v>105204344.8759528</v>
+        <v>17353810.89263055</v>
       </c>
       <c r="BL4">
-        <v>107044478.2900488</v>
+        <v>18452185.97254556</v>
       </c>
       <c r="BM4">
-        <v>108948915.5074871</v>
+        <v>19734469.9068753</v>
       </c>
       <c r="BN4">
-        <v>110792420.7751017</v>
+        <v>20938458.09431096</v>
       </c>
       <c r="BO4">
-        <v>112565885.0902101</v>
+        <v>21984513.7916848</v>
       </c>
       <c r="BP4">
-        <v>114298144.0863156</v>
+        <v>22776613.70948895</v>
       </c>
       <c r="BQ4">
-        <v>116063912.5507613</v>
+        <v>23334278.75971022</v>
       </c>
       <c r="BR4">
-        <v>117857413.6399772</v>
+        <v>23781458.55540352</v>
       </c>
       <c r="BS4">
-        <v>119628004.545068</v>
+        <v>24082100.51199809</v>
       </c>
       <c r="BT4">
-        <v>121365566.5672352</v>
+        <v>24160130.28411395</v>
       </c>
       <c r="BU4">
-        <v>123043149.1936979</v>
+        <v>23911269.48028371</v>
       </c>
       <c r="BV4">
-        <v>124661445.1426056</v>
+        <v>23215967.42337477</v>
       </c>
       <c r="BW4">
-        <v>126290543.3280762</v>
+        <v>22556152.13538384</v>
       </c>
       <c r="BX4">
-        <v>127961208.4832943</v>
+        <v>22075425.11030297</v>
       </c>
       <c r="BY4">
-        <v>129680107.1303667</v>
+        <v>21789701.48679783</v>
       </c>
       <c r="BZ4">
-        <v>131413019.9416963</v>
+        <v>21489343.15880975</v>
       </c>
       <c r="CA4">
-        <v>133178715.4163709</v>
+        <v>20962803.67132809</v>
       </c>
       <c r="CB4">
-        <v>135007368.6617739</v>
+        <v>20666871.51660128</v>
       </c>
       <c r="CC4">
-        <v>136866717.9982962</v>
+        <v>20453070.57890044</v>
       </c>
       <c r="CD4">
-        <v>138769032.341698</v>
+        <v>20359998.77591528</v>
       </c>
       <c r="CE4">
-        <v>140720541.2148604</v>
+        <v>20404644.61441546</v>
       </c>
       <c r="CF4">
-        <v>142751912.5125363</v>
+        <v>20416059.48024409</v>
       </c>
       <c r="CG4">
-        <v>144881854.877055</v>
+        <v>21035911.18600959</v>
       </c>
       <c r="CH4">
-        <v>147039464.7948237</v>
+        <v>21779347.16896602</v>
       </c>
       <c r="CI4">
-        <v>149205165.2921427</v>
+        <v>22585744.85015923</v>
       </c>
       <c r="CJ4">
-        <v>151355128.9296443</v>
+        <v>23405787.81574507</v>
       </c>
       <c r="CK4">
-        <v>153472525.246503</v>
+        <v>23600996.11226264</v>
       </c>
       <c r="CL4">
-        <v>155628161.1576654</v>
+        <v>24242044.41009548</v>
       </c>
       <c r="CM4">
-        <v>157755111.0136976</v>
+        <v>24739205.19847544</v>
       </c>
       <c r="CN4">
-        <v>159864885.561071</v>
+        <v>25111525.22748174</v>
       </c>
       <c r="CO4">
-        <v>161961236.8357683</v>
+        <v>25386286.54084619</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694915.880510496</v>
+        <v>2149741.752917891</v>
       </c>
       <c r="E5">
-        <v>996189.5315787235</v>
+        <v>1439681.332914339</v>
       </c>
       <c r="F5">
-        <v>499591.0178038013</v>
+        <v>1345819.442124946</v>
       </c>
       <c r="G5">
-        <v>307491.8536194687</v>
+        <v>1297235.110396892</v>
       </c>
       <c r="H5">
-        <v>288589.021174796</v>
+        <v>1244835.438951651</v>
       </c>
       <c r="I5">
-        <v>205738.7575899401</v>
+        <v>1555390.171832525</v>
       </c>
       <c r="J5">
-        <v>169875.419654826</v>
+        <v>1711378.352999566</v>
       </c>
       <c r="K5">
-        <v>220549.5257116948</v>
+        <v>1489427.804313139</v>
       </c>
       <c r="L5">
-        <v>398698.7357886778</v>
+        <v>1378421.313648296</v>
       </c>
       <c r="M5">
-        <v>353782.379294222</v>
+        <v>1542530.337653843</v>
       </c>
       <c r="N5">
-        <v>448511.7055296857</v>
+        <v>1621888.435414487</v>
       </c>
       <c r="O5">
-        <v>562772.5514551275</v>
+        <v>2112186.074530119</v>
       </c>
       <c r="P5">
-        <v>3572003.813856287</v>
+        <v>16307860.74407582</v>
       </c>
       <c r="Q5">
-        <v>3589353.116130449</v>
+        <v>16333817.06253837</v>
       </c>
       <c r="R5">
-        <v>3610741.039429311</v>
+        <v>16366773.88038394</v>
       </c>
       <c r="S5">
-        <v>11350636.0423383</v>
+        <v>54209896.4510223</v>
       </c>
       <c r="T5">
-        <v>11380846.94086653</v>
+        <v>54260378.05537483</v>
       </c>
       <c r="U5">
-        <v>11415450.97274464</v>
+        <v>54321590.5780502</v>
       </c>
       <c r="V5">
-        <v>11454159.24411783</v>
+        <v>54395334.61158422</v>
       </c>
       <c r="W5">
-        <v>11496517.02643154</v>
+        <v>54484221.98122366</v>
       </c>
       <c r="X5">
-        <v>11034112.46746882</v>
+        <v>57389956.83210603</v>
       </c>
       <c r="Y5">
-        <v>11082352.35246721</v>
+        <v>57522875.59249428</v>
       </c>
       <c r="Z5">
-        <v>11133341.66331111</v>
+        <v>57689272.62364608</v>
       </c>
       <c r="AA5">
-        <v>11187867.49748444</v>
+        <v>57901220.27821621</v>
       </c>
       <c r="AB5">
-        <v>11247959.23128487</v>
+        <v>58175278.68584626</v>
       </c>
       <c r="AC5">
-        <v>2306449.192653113</v>
+        <v>16815760.9233297</v>
       </c>
       <c r="AD5">
-        <v>2391153.7086506</v>
+        <v>17286369.21754062</v>
       </c>
       <c r="AE5">
-        <v>2499482.625067458</v>
+        <v>17904379.74342108</v>
       </c>
       <c r="AF5">
-        <v>2642067.779656544</v>
+        <v>18711091.3638337</v>
       </c>
       <c r="AG5">
-        <v>2831225.405945858</v>
+        <v>19752642.5395656</v>
       </c>
       <c r="AH5">
-        <v>1375370.507293349</v>
+        <v>7100985.214303109</v>
       </c>
       <c r="AI5">
-        <v>1695501.868373016</v>
+        <v>8558628.776293971</v>
       </c>
       <c r="AJ5">
-        <v>2096487.52636262</v>
+        <v>10343223.49879945</v>
       </c>
       <c r="AK5">
-        <v>2583301.248688139</v>
+        <v>12736317.69544745</v>
       </c>
       <c r="AL5">
-        <v>3154960.697109957</v>
+        <v>15543798.35320103</v>
       </c>
       <c r="AM5">
-        <v>3803311.94920562</v>
+        <v>24623419.70591753</v>
       </c>
       <c r="AN5">
-        <v>4512275.622011031</v>
+        <v>28103852.0388016</v>
       </c>
       <c r="AO5">
-        <v>5257706.131523693</v>
+        <v>31788753.17556047</v>
       </c>
       <c r="AP5">
-        <v>6007998.537196478</v>
+        <v>35538743.24482383</v>
       </c>
       <c r="AQ5">
-        <v>6725679.096264409</v>
+        <v>39182091.83569061</v>
       </c>
       <c r="AR5">
-        <v>7370157.174236216</v>
+        <v>50730220.39585349</v>
       </c>
       <c r="AS5">
-        <v>7901441.719232437</v>
+        <v>53582973.73533544</v>
       </c>
       <c r="AT5">
-        <v>8284533.112915921</v>
+        <v>55768535.01954631</v>
       </c>
       <c r="AU5">
-        <v>8493773.263129575</v>
+        <v>57152321.54201949</v>
       </c>
       <c r="AV5">
-        <v>9665914.112896187</v>
+        <v>57657588.33725314</v>
       </c>
       <c r="AW5">
-        <v>9829008.589214649</v>
+        <v>59674805.14946931</v>
       </c>
       <c r="AX5">
-        <v>9498725.507863143</v>
+        <v>58466675.55621916</v>
       </c>
       <c r="AY5">
-        <v>9029736.948922757</v>
+        <v>56555600.38316376</v>
       </c>
       <c r="AZ5">
-        <v>8461081.790823596</v>
+        <v>54114431.19747898</v>
       </c>
       <c r="BA5">
-        <v>7837585.827443898</v>
+        <v>51349762.54116362</v>
       </c>
       <c r="BB5">
-        <v>7039053.412156273</v>
+        <v>47088951.13587342</v>
       </c>
       <c r="BC5">
-        <v>6444918.466468572</v>
+        <v>44351872.50387684</v>
       </c>
       <c r="BD5">
-        <v>5928901.437005792</v>
+        <v>41954724.46462008</v>
       </c>
       <c r="BE5">
-        <v>5524124.90716791</v>
+        <v>40081566.05725876</v>
       </c>
       <c r="BF5">
-        <v>5253416.023102228</v>
+        <v>38872391.33546837</v>
       </c>
       <c r="BG5">
-        <v>4962767.169638635</v>
+        <v>37640551.50026995</v>
       </c>
       <c r="BH5">
-        <v>4980136.485898595</v>
+        <v>37952035.22533032</v>
       </c>
       <c r="BI5">
-        <v>5128378.757365471</v>
+        <v>39002649.55709244</v>
       </c>
       <c r="BJ5">
-        <v>5387295.56529374</v>
+        <v>40712337.6665089</v>
       </c>
       <c r="BK5">
-        <v>5732359.19354442</v>
+        <v>42967384.48179392</v>
       </c>
       <c r="BL5">
-        <v>6013834.106629432</v>
+        <v>45527538.63132388</v>
       </c>
       <c r="BM5">
-        <v>6454360.777769801</v>
+        <v>48457152.40034465</v>
       </c>
       <c r="BN5">
-        <v>6906426.985447424</v>
+        <v>51500205.15169838</v>
       </c>
       <c r="BO5">
-        <v>7348338.073254609</v>
+        <v>54508466.62404854</v>
       </c>
       <c r="BP5">
-        <v>7760521.102078096</v>
+        <v>57343214.67727567</v>
       </c>
       <c r="BQ5">
-        <v>8039452.830839692</v>
+        <v>59906797.05290179</v>
       </c>
       <c r="BR5">
-        <v>8343752.165173239</v>
+        <v>62052462.69020435</v>
       </c>
       <c r="BS5">
-        <v>8576136.8174683</v>
+        <v>63734018.66308023</v>
       </c>
       <c r="BT5">
-        <v>8729459.79979502</v>
+        <v>64911890.68180227</v>
       </c>
       <c r="BU5">
-        <v>8800598.417804809</v>
+        <v>65578282.62157413</v>
       </c>
       <c r="BV5">
-        <v>8706393.735151194</v>
+        <v>65537208.04447953</v>
       </c>
       <c r="BW5">
-        <v>8621127.335674386</v>
+        <v>65280747.25322532</v>
       </c>
       <c r="BX5">
-        <v>8470558.812489027</v>
+        <v>64667640.67209154</v>
       </c>
       <c r="BY5">
-        <v>8268926.430979183</v>
+        <v>63795672.24017183</v>
       </c>
       <c r="BZ5">
-        <v>8033895.83800819</v>
+        <v>62774659.6554585</v>
       </c>
       <c r="CA5">
-        <v>7696851.524038998</v>
+        <v>61327568.57957956</v>
       </c>
       <c r="CB5">
-        <v>7455398.648352249</v>
+        <v>60346317.79748568</v>
       </c>
       <c r="CC5">
-        <v>7240382.787583171</v>
+        <v>59539227.80042721</v>
       </c>
       <c r="CD5">
-        <v>7068279.108861749</v>
+        <v>58988740.61146878</v>
       </c>
       <c r="CE5">
-        <v>6951301.116110928</v>
+        <v>58755798.08024204</v>
       </c>
       <c r="CF5">
-        <v>6796797.052653031</v>
+        <v>58206323.86840061</v>
       </c>
       <c r="CG5">
-        <v>6806428.864783717</v>
+        <v>58691986.55265705</v>
       </c>
       <c r="CH5">
-        <v>6877555.577575674</v>
+        <v>59528171.04801268</v>
       </c>
       <c r="CI5">
-        <v>7003342.091626715</v>
+        <v>60678721.09089259</v>
       </c>
       <c r="CJ5">
-        <v>7173862.687754709</v>
+        <v>62089486.34494992</v>
       </c>
       <c r="CK5">
-        <v>7240665.403631449</v>
+        <v>62640851.46598773</v>
       </c>
       <c r="CL5">
-        <v>7463546.641377614</v>
+        <v>64362407.43359915</v>
       </c>
       <c r="CM5">
-        <v>7692767.310570767</v>
+        <v>66123987.85588149</v>
       </c>
       <c r="CN5">
-        <v>7915685.706219467</v>
+        <v>67850182.81954922</v>
       </c>
       <c r="CO5">
-        <v>8120984.493205855</v>
+        <v>69472429.52852529</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285184034511</v>
+        <v>1072.353295692877</v>
       </c>
       <c r="E2">
-        <v>564.6463462258951</v>
+        <v>2470.050435345168</v>
       </c>
       <c r="F2">
-        <v>1064.88210031217</v>
+        <v>3867.023868413155</v>
       </c>
       <c r="G2">
-        <v>1435.497018048624</v>
+        <v>5194.515956773338</v>
       </c>
       <c r="H2">
-        <v>2384.506733964104</v>
+        <v>6974.972315131404</v>
       </c>
       <c r="I2">
-        <v>2929.805485024658</v>
+        <v>8259.448053693282</v>
       </c>
       <c r="J2">
-        <v>3538.331158889776</v>
+        <v>10583.58280483082</v>
       </c>
       <c r="K2">
-        <v>4238.291001298352</v>
+        <v>12894.08424371137</v>
       </c>
       <c r="L2">
-        <v>4796.285993122247</v>
+        <v>14949.9667629635</v>
       </c>
       <c r="M2">
-        <v>5481.152939221779</v>
+        <v>16844.92153652787</v>
       </c>
       <c r="N2">
-        <v>5829.393805569774</v>
+        <v>20898.58493318907</v>
       </c>
       <c r="O2">
-        <v>6217.449297080471</v>
+        <v>23359.24622501895</v>
       </c>
       <c r="P2">
-        <v>6998.187241961988</v>
+        <v>28291.22640805191</v>
       </c>
       <c r="Q2">
-        <v>7795.75037805355</v>
+        <v>33613.97271633288</v>
       </c>
       <c r="R2">
-        <v>8610.833339668688</v>
+        <v>39332.92088023645</v>
       </c>
       <c r="S2">
-        <v>10610.69021870658</v>
+        <v>51837.15011524262</v>
       </c>
       <c r="T2">
-        <v>12602.64741802019</v>
+        <v>65225.60529377876</v>
       </c>
       <c r="U2">
-        <v>14597.21732785761</v>
+        <v>79507.88822884393</v>
       </c>
       <c r="V2">
-        <v>16607.2209712967</v>
+        <v>94700.84486969523</v>
       </c>
       <c r="W2">
-        <v>18634.12952552675</v>
+        <v>110817.8818690364</v>
       </c>
       <c r="X2">
-        <v>20508.48295735598</v>
+        <v>127013.5337683869</v>
       </c>
       <c r="Y2">
-        <v>22407.0379155534</v>
+        <v>144098.1467214654</v>
       </c>
       <c r="Z2">
-        <v>24323.67875436524</v>
+        <v>162079.0746872412</v>
       </c>
       <c r="AA2">
-        <v>26261.95857807023</v>
+        <v>180975.0865128797</v>
       </c>
       <c r="AB2">
-        <v>28260.86352347876</v>
+        <v>200812.0949745741</v>
       </c>
       <c r="AC2">
-        <v>29010.26172702551</v>
+        <v>210087.1810801795</v>
       </c>
       <c r="AD2">
-        <v>29869.76299619771</v>
+        <v>219620.3003560606</v>
       </c>
       <c r="AE2">
-        <v>30835.9054413033</v>
+        <v>229484.5386991453</v>
       </c>
       <c r="AF2">
-        <v>31792.90960980358</v>
+        <v>239669.3205427402</v>
       </c>
       <c r="AG2">
-        <v>32710.21242892942</v>
+        <v>250228.9804076985</v>
       </c>
       <c r="AH2">
-        <v>33437.59886088303</v>
+        <v>257000.8246561963</v>
       </c>
       <c r="AI2">
-        <v>34140.02891291243</v>
+        <v>263836.1533934295</v>
       </c>
       <c r="AJ2">
-        <v>34810.35828739974</v>
+        <v>271002.8070238181</v>
       </c>
       <c r="AK2">
-        <v>35459.23196123079</v>
+        <v>278762.172609936</v>
       </c>
       <c r="AL2">
-        <v>36196.3957865031</v>
+        <v>287098.6942969062</v>
       </c>
       <c r="AM2">
-        <v>37131.74571015644</v>
+        <v>298143.4995804123</v>
       </c>
       <c r="AN2">
-        <v>38285.38016865699</v>
+        <v>310585.5665524047</v>
       </c>
       <c r="AO2">
-        <v>39749.21300619095</v>
+        <v>324964.5964845023</v>
       </c>
       <c r="AP2">
-        <v>41610.90962247779</v>
+        <v>341843.1846107399</v>
       </c>
       <c r="AQ2">
-        <v>43677.40158018799</v>
+        <v>360513.1088831679</v>
       </c>
       <c r="AR2">
-        <v>45765.14650284862</v>
+        <v>383494.7651133839</v>
       </c>
       <c r="AS2">
-        <v>47851.43258694091</v>
+        <v>407466.7367979103</v>
       </c>
       <c r="AT2">
-        <v>49914.793681085</v>
+        <v>432270.3492871036</v>
       </c>
       <c r="AU2">
-        <v>51937.11341723706</v>
+        <v>457753.7896936268</v>
       </c>
       <c r="AV2">
-        <v>53945.33251137012</v>
+        <v>483927.247006517</v>
       </c>
       <c r="AW2">
-        <v>55925.83069624714</v>
+        <v>511342.2114596686</v>
       </c>
       <c r="AX2">
-        <v>58010.89369887341</v>
+        <v>538481.7613645417</v>
       </c>
       <c r="AY2">
-        <v>59832.89698454454</v>
+        <v>563860.1928924562</v>
       </c>
       <c r="AZ2">
-        <v>61294.41440815529</v>
+        <v>586378.4276948728</v>
       </c>
       <c r="BA2">
-        <v>62603.23891303</v>
+        <v>607477.5295672651</v>
       </c>
       <c r="BB2">
-        <v>63904.96281641979</v>
+        <v>627694.6234940829</v>
       </c>
       <c r="BC2">
-        <v>65185.72545131214</v>
+        <v>647776.0213456647</v>
       </c>
       <c r="BD2">
-        <v>66397.94832755472</v>
+        <v>667216.844611733</v>
       </c>
       <c r="BE2">
-        <v>67528.63749608131</v>
+        <v>685678.1507826461</v>
       </c>
       <c r="BF2">
-        <v>68612.40063273082</v>
+        <v>703818.6930625186</v>
       </c>
       <c r="BG2">
-        <v>69668.3886983049</v>
+        <v>721782.839209852</v>
       </c>
       <c r="BH2">
-        <v>70772.8513871335</v>
+        <v>740598.7901989787</v>
       </c>
       <c r="BI2">
-        <v>72002.37077034965</v>
+        <v>760722.960158987</v>
       </c>
       <c r="BJ2">
-        <v>73432.64938975309</v>
+        <v>782643.0574128267</v>
       </c>
       <c r="BK2">
-        <v>75115.34883417428</v>
+        <v>806526.4865981061</v>
       </c>
       <c r="BL2">
-        <v>77058.99221715372</v>
+        <v>832150.8684398076</v>
       </c>
       <c r="BM2">
-        <v>79257.04139367134</v>
+        <v>860105.9242813311</v>
       </c>
       <c r="BN2">
-        <v>81607.26558451744</v>
+        <v>890461.855176266</v>
       </c>
       <c r="BO2">
-        <v>84003.06210839917</v>
+        <v>923073.998816185</v>
       </c>
       <c r="BP2">
-        <v>86394.35493659395</v>
+        <v>957221.4668817276</v>
       </c>
       <c r="BQ2">
-        <v>88751.72131738727</v>
+        <v>992113.6276248731</v>
       </c>
       <c r="BR2">
-        <v>91083.28872906342</v>
+        <v>1027789.389185787</v>
       </c>
       <c r="BS2">
-        <v>93389.5202992526</v>
+        <v>1064102.203065254</v>
       </c>
       <c r="BT2">
-        <v>95660.85914467293</v>
+        <v>1100643.181138389</v>
       </c>
       <c r="BU2">
-        <v>97847.97041743223</v>
+        <v>1136555.336565016</v>
       </c>
       <c r="BV2">
-        <v>99839.85657963069</v>
+        <v>1170766.146020508</v>
       </c>
       <c r="BW2">
-        <v>101622.6156234166</v>
+        <v>1203295.513192974</v>
       </c>
       <c r="BX2">
-        <v>103280.4390114072</v>
+        <v>1234639.786760662</v>
       </c>
       <c r="BY2">
-        <v>104890.6167064479</v>
+        <v>1265357.279212411</v>
       </c>
       <c r="BZ2">
-        <v>106464.6709813505</v>
+        <v>1295670.842389653</v>
       </c>
       <c r="CA2">
-        <v>107974.0149648111</v>
+        <v>1325333.175026773</v>
       </c>
       <c r="CB2">
-        <v>109435.145864324</v>
+        <v>1354580.591145803</v>
       </c>
       <c r="CC2">
-        <v>110875.7420496084</v>
+        <v>1383757.267348411</v>
       </c>
       <c r="CD2">
-        <v>112341.4053486504</v>
+        <v>1413364.54158421</v>
       </c>
       <c r="CE2">
-        <v>113893.4981886551</v>
+        <v>1443966.498959444</v>
       </c>
       <c r="CF2">
-        <v>115582.6117135531</v>
+        <v>1475782.582297277</v>
       </c>
       <c r="CG2">
-        <v>117478.0807971342</v>
+        <v>1509372.951860111</v>
       </c>
       <c r="CH2">
-        <v>119607.5303979153</v>
+        <v>1544898.632302515</v>
       </c>
       <c r="CI2">
-        <v>121964.2568448607</v>
+        <v>1582459.474569315</v>
       </c>
       <c r="CJ2">
-        <v>124505.5319799087</v>
+        <v>1622180.792690771</v>
       </c>
       <c r="CK2">
-        <v>127137.8430941479</v>
+        <v>1663628.154052318</v>
       </c>
       <c r="CL2">
-        <v>129810.9023216376</v>
+        <v>1706884.873014172</v>
       </c>
       <c r="CM2">
-        <v>132479.5857271456</v>
+        <v>1751460.351777067</v>
       </c>
       <c r="CN2">
-        <v>135123.7618331021</v>
+        <v>1796908.972615193</v>
       </c>
       <c r="CO2">
-        <v>137735.437628775</v>
+        <v>1842957.34360853</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.490721496882</v>
+        <v>70.90986674581129</v>
       </c>
       <c r="E3">
-        <v>35.65014963863928</v>
+        <v>163.6126556386614</v>
       </c>
       <c r="F3">
-        <v>67.96335009617084</v>
+        <v>256.1485766420695</v>
       </c>
       <c r="G3">
-        <v>91.57164507497303</v>
+        <v>344.0167853366277</v>
       </c>
       <c r="H3">
-        <v>154.1261727825233</v>
+        <v>462.4057110825447</v>
       </c>
       <c r="I3">
-        <v>189.5543516325549</v>
+        <v>547.4709564627051</v>
       </c>
       <c r="J3">
-        <v>229.1165820795718</v>
+        <v>702.2510562004401</v>
       </c>
       <c r="K3">
-        <v>274.6666968023985</v>
+        <v>855.9632805554559</v>
       </c>
       <c r="L3">
-        <v>310.7268943805033</v>
+        <v>992.6197415267985</v>
       </c>
       <c r="M3">
-        <v>355.2353114885433</v>
+        <v>1118.390498306938</v>
       </c>
       <c r="N3">
-        <v>376.9863308687164</v>
+        <v>1389.059769863725</v>
       </c>
       <c r="O3">
-        <v>401.5559608576062</v>
+        <v>1552.875416097135</v>
       </c>
       <c r="P3">
-        <v>452.4171563053666</v>
+        <v>1882.55313140134</v>
       </c>
       <c r="Q3">
-        <v>504.3781604312711</v>
+        <v>2238.44883376189</v>
       </c>
       <c r="R3">
-        <v>557.4861694214587</v>
+        <v>2620.930776971656</v>
       </c>
       <c r="S3">
-        <v>690.0955098798509</v>
+        <v>3458.958623573114</v>
       </c>
       <c r="T3">
-        <v>822.1207838698829</v>
+        <v>4356.3271414009</v>
       </c>
       <c r="U3">
-        <v>954.2738522671445</v>
+        <v>5313.686209142982</v>
       </c>
       <c r="V3">
-        <v>1087.422975851633</v>
+        <v>6332.176329682948</v>
       </c>
       <c r="W3">
-        <v>1221.667776183645</v>
+        <v>7412.705070154973</v>
       </c>
       <c r="X3">
-        <v>1345.63260364046</v>
+        <v>8498.499581801068</v>
       </c>
       <c r="Y3">
-        <v>1471.188938760809</v>
+        <v>9644.001930068083</v>
       </c>
       <c r="Z3">
-        <v>1597.922657685607</v>
+        <v>10849.70963922203</v>
       </c>
       <c r="AA3">
-        <v>1726.07438833229</v>
+        <v>12116.89279366384</v>
       </c>
       <c r="AB3">
-        <v>1858.284367528398</v>
+        <v>13447.3049766507</v>
       </c>
       <c r="AC3">
-        <v>1906.608335841942</v>
+        <v>14068.50349624058</v>
       </c>
       <c r="AD3">
-        <v>1962.340055436728</v>
+        <v>14707.05235168857</v>
       </c>
       <c r="AE3">
-        <v>2025.244896556293</v>
+        <v>15367.89802798144</v>
       </c>
       <c r="AF3">
-        <v>2087.481570460996</v>
+        <v>16050.32092331644</v>
       </c>
       <c r="AG3">
-        <v>2146.979930113435</v>
+        <v>16757.99560555848</v>
       </c>
       <c r="AH3">
-        <v>2193.674776473293</v>
+        <v>17211.33524166785</v>
       </c>
       <c r="AI3">
-        <v>2238.627275528807</v>
+        <v>17668.9433771484</v>
       </c>
       <c r="AJ3">
-        <v>2281.352778571922</v>
+        <v>18148.95153723954</v>
       </c>
       <c r="AK3">
-        <v>2322.571210918195</v>
+        <v>18669.04895431044</v>
       </c>
       <c r="AL3">
-        <v>2369.713896425897</v>
+        <v>19228.17178219225</v>
       </c>
       <c r="AM3">
-        <v>2430.222068325964</v>
+        <v>19969.61527312831</v>
       </c>
       <c r="AN3">
-        <v>2505.45627554972</v>
+        <v>20805.56345616977</v>
       </c>
       <c r="AO3">
-        <v>2601.640341658889</v>
+        <v>21772.56018744327</v>
       </c>
       <c r="AP3">
-        <v>2724.710651134011</v>
+        <v>22908.70292574901</v>
       </c>
       <c r="AQ3">
-        <v>2861.593516338163</v>
+        <v>24166.03579684828</v>
       </c>
       <c r="AR3">
-        <v>2999.858845744658</v>
+        <v>25713.37703327509</v>
       </c>
       <c r="AS3">
-        <v>3137.969555098179</v>
+        <v>27327.60744725693</v>
       </c>
       <c r="AT3">
-        <v>3274.473156529808</v>
+        <v>28997.99618356671</v>
       </c>
       <c r="AU3">
-        <v>3408.144174376008</v>
+        <v>30714.27996454201</v>
       </c>
       <c r="AV3">
-        <v>3540.799942860974</v>
+        <v>32477.16784374129</v>
       </c>
       <c r="AW3">
-        <v>3671.520796069097</v>
+        <v>34323.59969758146</v>
       </c>
       <c r="AX3">
-        <v>3809.14769900787</v>
+        <v>36151.27360908539</v>
       </c>
       <c r="AY3">
-        <v>3928.908307662037</v>
+        <v>37859.59137032183</v>
       </c>
       <c r="AZ3">
-        <v>4024.206126450041</v>
+        <v>39374.1331763401</v>
       </c>
       <c r="BA3">
-        <v>4109.112527874052</v>
+        <v>40792.49527278874</v>
       </c>
       <c r="BB3">
-        <v>4193.496518865149</v>
+        <v>42151.56083989245</v>
       </c>
       <c r="BC3">
-        <v>4276.403525609393</v>
+        <v>43501.37158839875</v>
       </c>
       <c r="BD3">
-        <v>4354.610928807199</v>
+        <v>44807.72799030966</v>
       </c>
       <c r="BE3">
-        <v>4427.237940359722</v>
+        <v>46047.66350611002</v>
       </c>
       <c r="BF3">
-        <v>4496.626938152494</v>
+        <v>47265.77648383795</v>
       </c>
       <c r="BG3">
-        <v>4564.084395720282</v>
+        <v>48472.19401950963</v>
       </c>
       <c r="BH3">
-        <v>4634.757458746114</v>
+        <v>49736.17192427448</v>
       </c>
       <c r="BI3">
-        <v>4713.831221960562</v>
+        <v>51088.60153553679</v>
       </c>
       <c r="BJ3">
-        <v>4806.431405027256</v>
+        <v>52562.4955894735</v>
       </c>
       <c r="BK3">
-        <v>4916.055810034362</v>
+        <v>54169.17856183276</v>
       </c>
       <c r="BL3">
-        <v>5043.289054038727</v>
+        <v>55893.78363657108</v>
       </c>
       <c r="BM3">
-        <v>5187.676753664717</v>
+        <v>57776.04349167981</v>
       </c>
       <c r="BN3">
-        <v>5342.296128900569</v>
+        <v>59820.71210917994</v>
       </c>
       <c r="BO3">
-        <v>5499.92851888643</v>
+        <v>62017.99571820235</v>
       </c>
       <c r="BP3">
-        <v>5657.18320499095</v>
+        <v>64319.07912653124</v>
       </c>
       <c r="BQ3">
-        <v>5812.070818104864</v>
+        <v>66670.52598755353</v>
       </c>
       <c r="BR3">
-        <v>5965.134263596011</v>
+        <v>69074.8774353823</v>
       </c>
       <c r="BS3">
-        <v>6116.405491408252</v>
+        <v>71522.21923607924</v>
       </c>
       <c r="BT3">
-        <v>6265.238013969099</v>
+        <v>73984.8720299244</v>
       </c>
       <c r="BU3">
-        <v>6408.291765957265</v>
+        <v>76404.81058947067</v>
       </c>
       <c r="BV3">
-        <v>6538.054205434981</v>
+        <v>78709.5358162238</v>
       </c>
       <c r="BW3">
-        <v>6653.576754287371</v>
+        <v>80900.27947145639</v>
       </c>
       <c r="BX3">
-        <v>6760.560940206162</v>
+        <v>83010.66097699842</v>
       </c>
       <c r="BY3">
-        <v>6864.240736392131</v>
+        <v>85078.49401492758</v>
       </c>
       <c r="BZ3">
-        <v>6965.396405227035</v>
+        <v>87118.87379298259</v>
       </c>
       <c r="CA3">
-        <v>7062.095391359967</v>
+        <v>89115.16538488628</v>
       </c>
       <c r="CB3">
-        <v>7155.446513317233</v>
+        <v>91083.25602131609</v>
       </c>
       <c r="CC3">
-        <v>7247.323762021181</v>
+        <v>93046.45058110249</v>
       </c>
       <c r="CD3">
-        <v>7340.814767150587</v>
+        <v>95038.69553091722</v>
       </c>
       <c r="CE3">
-        <v>7440.074419558204</v>
+        <v>97098.18526038725</v>
       </c>
       <c r="CF3">
-        <v>7548.531973748615</v>
+        <v>99239.91342877498</v>
       </c>
       <c r="CG3">
-        <v>7670.873026597516</v>
+        <v>101501.6608543589</v>
       </c>
       <c r="CH3">
-        <v>7808.967874633277</v>
+        <v>103894.3244863767</v>
       </c>
       <c r="CI3">
-        <v>7962.362200578731</v>
+        <v>106424.6600196633</v>
       </c>
       <c r="CJ3">
-        <v>8128.162293450487</v>
+        <v>109101.1495983934</v>
       </c>
       <c r="CK3">
-        <v>8300.043029963441</v>
+        <v>111894.5929523107</v>
       </c>
       <c r="CL3">
-        <v>8474.586424377039</v>
+        <v>114810.4071911253</v>
       </c>
       <c r="CM3">
-        <v>8648.736832975876</v>
+        <v>117815.3680211888</v>
       </c>
       <c r="CN3">
-        <v>8821.131114344174</v>
+        <v>120879.2984356852</v>
       </c>
       <c r="CO3">
-        <v>8991.228195227894</v>
+        <v>123983.686307774</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474419.10068802</v>
+        <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>53251708.23499861</v>
+        <v>3082938.417141687</v>
       </c>
       <c r="F4">
-        <v>82628032.43536809</v>
+        <v>4356491.107201578</v>
       </c>
       <c r="G4">
-        <v>112095879.9519247</v>
+        <v>5833762.594395978</v>
       </c>
       <c r="H4">
-        <v>138928909.9031197</v>
+        <v>7457135.3880507</v>
       </c>
       <c r="I4">
-        <v>165248770.1939155</v>
+        <v>9000019.415885929</v>
       </c>
       <c r="J4">
-        <v>194277192.7206469</v>
+        <v>10677451.04175133</v>
       </c>
       <c r="K4">
-        <v>227126488.0261134</v>
+        <v>12216082.76307636</v>
       </c>
       <c r="L4">
-        <v>259753932.4812815</v>
+        <v>13744402.31021416</v>
       </c>
       <c r="M4">
-        <v>294463282.0002236</v>
+        <v>15782835.0040762</v>
       </c>
       <c r="N4">
-        <v>332029530.427066</v>
+        <v>17717256.82240039</v>
       </c>
       <c r="O4">
-        <v>366886344.2962246</v>
+        <v>19633428.46110847</v>
       </c>
       <c r="P4">
-        <v>405605224.0651113</v>
+        <v>29565082.97551566</v>
       </c>
       <c r="Q4">
-        <v>445657413.2070661</v>
+        <v>39547548.33472873</v>
       </c>
       <c r="R4">
-        <v>487031589.8945042</v>
+        <v>49570058.21063477</v>
       </c>
       <c r="S4">
-        <v>534289518.9136462</v>
+        <v>80850088.1900636</v>
       </c>
       <c r="T4">
-        <v>582994362.7739419</v>
+        <v>112194714.9693733</v>
       </c>
       <c r="U4">
-        <v>633151650.2696214</v>
+        <v>143614952.1223665</v>
       </c>
       <c r="V4">
-        <v>684763797.132597</v>
+        <v>175120731.1673639</v>
       </c>
       <c r="W4">
-        <v>737830941.9458437</v>
+        <v>206720546.0346228</v>
       </c>
       <c r="X4">
-        <v>791873981.7019939</v>
+        <v>239270746.3224045</v>
       </c>
       <c r="Y4">
-        <v>847280474.5625113</v>
+        <v>271931898.0278096</v>
       </c>
       <c r="Z4">
-        <v>904045576.1868566</v>
+        <v>304701450.557049</v>
       </c>
       <c r="AA4">
-        <v>962168988.7196132</v>
+        <v>337589473.6568055</v>
       </c>
       <c r="AB4">
-        <v>1021657542.500357</v>
+        <v>370608768.4062966</v>
       </c>
       <c r="AC4">
-        <v>1077364517.932246</v>
+        <v>379688226.0185917</v>
       </c>
       <c r="AD4">
-        <v>1134452777.148418</v>
+        <v>388935296.6037058</v>
       </c>
       <c r="AE4">
-        <v>1192928447.682041</v>
+        <v>398382235.9615244</v>
       </c>
       <c r="AF4">
-        <v>1252787935.626598</v>
+        <v>408019691.4167198</v>
       </c>
       <c r="AG4">
-        <v>1314037115.989096</v>
+        <v>417901845.5282402</v>
       </c>
       <c r="AH4">
-        <v>1375807749.969887</v>
+        <v>420536169.0991554</v>
       </c>
       <c r="AI4">
-        <v>1439037546.914133</v>
+        <v>423421616.4670767</v>
       </c>
       <c r="AJ4">
-        <v>1503761861.79024</v>
+        <v>426726605.1861168</v>
       </c>
       <c r="AK4">
-        <v>1570029473.334159</v>
+        <v>430637803.0196765</v>
       </c>
       <c r="AL4">
-        <v>1637907086.280489</v>
+        <v>435319356.9815896</v>
       </c>
       <c r="AM4">
-        <v>1707424083.261166</v>
+        <v>444425041.3121544</v>
       </c>
       <c r="AN4">
-        <v>1778609026.473557</v>
+        <v>454793234.9829578</v>
       </c>
       <c r="AO4">
-        <v>1851527663.214442</v>
+        <v>466632803.6888228</v>
       </c>
       <c r="AP4">
-        <v>1926233474.314754</v>
+        <v>480139932.1984554</v>
       </c>
       <c r="AQ4">
-        <v>2002599502.477204</v>
+        <v>494924908.7079384</v>
       </c>
       <c r="AR4">
-        <v>2080477469.832968</v>
+        <v>515578785.4264866</v>
       </c>
       <c r="AS4">
-        <v>2159820080.66012</v>
+        <v>536921316.1428968</v>
       </c>
       <c r="AT4">
-        <v>2240572336.438351</v>
+        <v>558752005.6712193</v>
       </c>
       <c r="AU4">
-        <v>2322675306.637444</v>
+        <v>580845065.617908</v>
       </c>
       <c r="AV4">
-        <v>2406589346.633779</v>
+        <v>603015596.7846216</v>
       </c>
       <c r="AW4">
-        <v>2491985431.585288</v>
+        <v>626357495.7402644</v>
       </c>
       <c r="AX4">
-        <v>2578826539.426846</v>
+        <v>649126309.990466</v>
       </c>
       <c r="AY4">
-        <v>2666761975.682719</v>
+        <v>670771137.0971981</v>
       </c>
       <c r="AZ4">
-        <v>2755696443.37794</v>
+        <v>690914600.4478259</v>
       </c>
       <c r="BA4">
-        <v>2845746154.213017</v>
+        <v>709941680.4889266</v>
       </c>
       <c r="BB4">
-        <v>2937021986.010952</v>
+        <v>727310989.0348556</v>
       </c>
       <c r="BC4">
-        <v>3029629190.434957</v>
+        <v>743971677.0719202</v>
       </c>
       <c r="BD4">
-        <v>3123572628.177824</v>
+        <v>759947040.1711146</v>
       </c>
       <c r="BE4">
-        <v>3218878328.873211</v>
+        <v>775378552.3044578</v>
       </c>
       <c r="BF4">
-        <v>3315613273.462581</v>
+        <v>790486212.5610868</v>
       </c>
       <c r="BG4">
-        <v>3413834510.163901</v>
+        <v>805002832.3187337</v>
       </c>
       <c r="BH4">
-        <v>3513707170.86727</v>
+        <v>819721748.1523436</v>
       </c>
       <c r="BI4">
-        <v>3615300397.593308</v>
+        <v>835038457.7025337</v>
       </c>
       <c r="BJ4">
-        <v>3718675027.476088</v>
+        <v>851283174.5321139</v>
       </c>
       <c r="BK4">
-        <v>3823879372.35204</v>
+        <v>868636985.4247445</v>
       </c>
       <c r="BL4">
-        <v>3930923850.642089</v>
+        <v>887089171.39729</v>
       </c>
       <c r="BM4">
-        <v>4039872766.149576</v>
+        <v>906823641.3041652</v>
       </c>
       <c r="BN4">
-        <v>4150665186.924678</v>
+        <v>927762099.3984762</v>
       </c>
       <c r="BO4">
-        <v>4263231072.014888</v>
+        <v>949746613.190161</v>
       </c>
       <c r="BP4">
-        <v>4377529216.101203</v>
+        <v>972523226.89965</v>
       </c>
       <c r="BQ4">
-        <v>4493593128.651964</v>
+        <v>995857505.6593602</v>
       </c>
       <c r="BR4">
-        <v>4611450542.291942</v>
+        <v>1019638964.214764</v>
       </c>
       <c r="BS4">
-        <v>4731078546.837009</v>
+        <v>1043721064.726762</v>
       </c>
       <c r="BT4">
-        <v>4852444113.404244</v>
+        <v>1067881195.010876</v>
       </c>
       <c r="BU4">
-        <v>4975487262.597942</v>
+        <v>1091792464.491159</v>
       </c>
       <c r="BV4">
-        <v>5100148707.740548</v>
+        <v>1115008431.914534</v>
       </c>
       <c r="BW4">
-        <v>5226439251.068624</v>
+        <v>1137564584.049918</v>
       </c>
       <c r="BX4">
-        <v>5354400459.551919</v>
+        <v>1159640009.160221</v>
       </c>
       <c r="BY4">
-        <v>5484080566.682285</v>
+        <v>1181429710.647019</v>
       </c>
       <c r="BZ4">
-        <v>5615493586.623981</v>
+        <v>1202919053.805828</v>
       </c>
       <c r="CA4">
-        <v>5748672302.040352</v>
+        <v>1223881857.477156</v>
       </c>
       <c r="CB4">
-        <v>5883679670.702126</v>
+        <v>1244548728.993758</v>
       </c>
       <c r="CC4">
-        <v>6020546388.700421</v>
+        <v>1265001799.572658</v>
       </c>
       <c r="CD4">
-        <v>6159315421.042119</v>
+        <v>1285361798.348573</v>
       </c>
       <c r="CE4">
-        <v>6300035962.256979</v>
+        <v>1305766442.962989</v>
       </c>
       <c r="CF4">
-        <v>6442787874.769515</v>
+        <v>1326182502.443233</v>
       </c>
       <c r="CG4">
-        <v>6587669729.64657</v>
+        <v>1347218413.629243</v>
       </c>
       <c r="CH4">
-        <v>6734709194.441394</v>
+        <v>1368997760.798209</v>
       </c>
       <c r="CI4">
-        <v>6883914359.733537</v>
+        <v>1391583505.648368</v>
       </c>
       <c r="CJ4">
-        <v>7035269488.663181</v>
+        <v>1414989293.464113</v>
       </c>
       <c r="CK4">
-        <v>7188742013.909684</v>
+        <v>1438590289.576376</v>
       </c>
       <c r="CL4">
-        <v>7344370175.067349</v>
+        <v>1462832333.986471</v>
       </c>
       <c r="CM4">
-        <v>7502125286.081047</v>
+        <v>1487571539.184947</v>
       </c>
       <c r="CN4">
-        <v>7661990171.642118</v>
+        <v>1512683064.412428</v>
       </c>
       <c r="CO4">
-        <v>7823951408.477887</v>
+        <v>1538069350.953274</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694915.880510496</v>
+        <v>2149741.752917891</v>
       </c>
       <c r="E5">
-        <v>2691105.412089219</v>
+        <v>3589423.08583223</v>
       </c>
       <c r="F5">
-        <v>3190696.42989302</v>
+        <v>4935242.527957176</v>
       </c>
       <c r="G5">
-        <v>3498188.283512489</v>
+        <v>6232477.638354069</v>
       </c>
       <c r="H5">
-        <v>3786777.304687285</v>
+        <v>7477313.07730572</v>
       </c>
       <c r="I5">
-        <v>3992516.062277225</v>
+        <v>9032703.249138245</v>
       </c>
       <c r="J5">
-        <v>4162391.481932051</v>
+        <v>10744081.60213781</v>
       </c>
       <c r="K5">
-        <v>4382941.007643746</v>
+        <v>12233509.40645095</v>
       </c>
       <c r="L5">
-        <v>4781639.743432424</v>
+        <v>13611930.72009925</v>
       </c>
       <c r="M5">
-        <v>5135422.122726646</v>
+        <v>15154461.05775309</v>
       </c>
       <c r="N5">
-        <v>5583933.828256332</v>
+        <v>16776349.49316758</v>
       </c>
       <c r="O5">
-        <v>6146706.37971146</v>
+        <v>18888535.5676977</v>
       </c>
       <c r="P5">
-        <v>9718710.193567747</v>
+        <v>35196396.31177352</v>
       </c>
       <c r="Q5">
-        <v>13308063.3096982</v>
+        <v>51530213.37431189</v>
       </c>
       <c r="R5">
-        <v>16918804.34912751</v>
+        <v>67896987.25469583</v>
       </c>
       <c r="S5">
-        <v>28269440.39146581</v>
+        <v>122106883.7057181</v>
       </c>
       <c r="T5">
-        <v>39650287.33233234</v>
+        <v>176367261.761093</v>
       </c>
       <c r="U5">
-        <v>51065738.30507697</v>
+        <v>230688852.3391432</v>
       </c>
       <c r="V5">
-        <v>62519897.5491948</v>
+        <v>285084186.9507273</v>
       </c>
       <c r="W5">
-        <v>74016414.57562634</v>
+        <v>339568408.931951</v>
       </c>
       <c r="X5">
-        <v>85050527.04309517</v>
+        <v>396958365.764057</v>
       </c>
       <c r="Y5">
-        <v>96132879.39556238</v>
+        <v>454481241.3565513</v>
       </c>
       <c r="Z5">
-        <v>107266221.0588735</v>
+        <v>512170513.9801974</v>
       </c>
       <c r="AA5">
-        <v>118454088.5563579</v>
+        <v>570071734.2584136</v>
       </c>
       <c r="AB5">
-        <v>129702047.7876428</v>
+        <v>628247012.9442598</v>
       </c>
       <c r="AC5">
-        <v>132008496.9802959</v>
+        <v>645062773.8675895</v>
       </c>
       <c r="AD5">
-        <v>134399650.6889465</v>
+        <v>662349143.0851301</v>
       </c>
       <c r="AE5">
-        <v>136899133.314014</v>
+        <v>680253522.8285512</v>
       </c>
       <c r="AF5">
-        <v>139541201.0936705</v>
+        <v>698964614.1923848</v>
       </c>
       <c r="AG5">
-        <v>142372426.4996164</v>
+        <v>718717256.7319504</v>
       </c>
       <c r="AH5">
-        <v>143747797.0069097</v>
+        <v>725818241.9462535</v>
       </c>
       <c r="AI5">
-        <v>145443298.8752827</v>
+        <v>734376870.7225475</v>
       </c>
       <c r="AJ5">
-        <v>147539786.4016454</v>
+        <v>744720094.221347</v>
       </c>
       <c r="AK5">
-        <v>150123087.6503335</v>
+        <v>757456411.9167944</v>
       </c>
       <c r="AL5">
-        <v>153278048.3474435</v>
+        <v>773000210.2699955</v>
       </c>
       <c r="AM5">
-        <v>157081360.2966491</v>
+        <v>797623629.9759129</v>
       </c>
       <c r="AN5">
-        <v>161593635.9186601</v>
+        <v>825727482.0147145</v>
       </c>
       <c r="AO5">
-        <v>166851342.0501838</v>
+        <v>857516235.190275</v>
       </c>
       <c r="AP5">
-        <v>172859340.5873803</v>
+        <v>893054978.4350988</v>
       </c>
       <c r="AQ5">
-        <v>179585019.6836447</v>
+        <v>932237070.2707894</v>
       </c>
       <c r="AR5">
-        <v>186955176.8578809</v>
+        <v>982967290.6666429</v>
       </c>
       <c r="AS5">
-        <v>194856618.5771134</v>
+        <v>1036550264.401978</v>
       </c>
       <c r="AT5">
-        <v>203141151.6900293</v>
+        <v>1092318799.421525</v>
       </c>
       <c r="AU5">
-        <v>211634924.9531589</v>
+        <v>1149471120.963544</v>
       </c>
       <c r="AV5">
-        <v>221300839.066055</v>
+        <v>1207128709.300797</v>
       </c>
       <c r="AW5">
-        <v>231129847.6552697</v>
+        <v>1266803514.450267</v>
       </c>
       <c r="AX5">
-        <v>240628573.1631328</v>
+        <v>1325270190.006486</v>
       </c>
       <c r="AY5">
-        <v>249658310.1120556</v>
+        <v>1381825790.38965</v>
       </c>
       <c r="AZ5">
-        <v>258119391.9028792</v>
+        <v>1435940221.587129</v>
       </c>
       <c r="BA5">
-        <v>265956977.7303231</v>
+        <v>1487289984.128292</v>
       </c>
       <c r="BB5">
-        <v>272996031.1424794</v>
+        <v>1534378935.264166</v>
       </c>
       <c r="BC5">
-        <v>279440949.6089479</v>
+        <v>1578730807.768043</v>
       </c>
       <c r="BD5">
-        <v>285369851.0459538</v>
+        <v>1620685532.232663</v>
       </c>
       <c r="BE5">
-        <v>290893975.9531217</v>
+        <v>1660767098.289922</v>
       </c>
       <c r="BF5">
-        <v>296147391.9762239</v>
+        <v>1699639489.62539</v>
       </c>
       <c r="BG5">
-        <v>301110159.1458625</v>
+        <v>1737280041.12566</v>
       </c>
       <c r="BH5">
-        <v>306090295.6317611</v>
+        <v>1775232076.35099</v>
       </c>
       <c r="BI5">
-        <v>311218674.3891266</v>
+        <v>1814234725.908082</v>
       </c>
       <c r="BJ5">
-        <v>316605969.9544203</v>
+        <v>1854947063.574591</v>
       </c>
       <c r="BK5">
-        <v>322338329.1479648</v>
+        <v>1897914448.056385</v>
       </c>
       <c r="BL5">
-        <v>328352163.2545942</v>
+        <v>1943441986.687709</v>
       </c>
       <c r="BM5">
-        <v>334806524.032364</v>
+        <v>1991899139.088054</v>
       </c>
       <c r="BN5">
-        <v>341712951.0178114</v>
+        <v>2043399344.239752</v>
       </c>
       <c r="BO5">
-        <v>349061289.091066</v>
+        <v>2097907810.863801</v>
       </c>
       <c r="BP5">
-        <v>356821810.1931441</v>
+        <v>2155251025.541076</v>
       </c>
       <c r="BQ5">
-        <v>364861263.0239838</v>
+        <v>2215157822.593978</v>
       </c>
       <c r="BR5">
-        <v>373205015.189157</v>
+        <v>2277210285.284182</v>
       </c>
       <c r="BS5">
-        <v>381781152.0066253</v>
+        <v>2340944303.947262</v>
       </c>
       <c r="BT5">
-        <v>390510611.8064203</v>
+        <v>2405856194.629065</v>
       </c>
       <c r="BU5">
-        <v>399311210.2242252</v>
+        <v>2471434477.250638</v>
       </c>
       <c r="BV5">
-        <v>408017603.9593763</v>
+        <v>2536971685.295118</v>
       </c>
       <c r="BW5">
-        <v>416638731.2950507</v>
+        <v>2602252432.548343</v>
       </c>
       <c r="BX5">
-        <v>425109290.1075398</v>
+        <v>2666920073.220435</v>
       </c>
       <c r="BY5">
-        <v>433378216.538519</v>
+        <v>2730715745.460607</v>
       </c>
       <c r="BZ5">
-        <v>441412112.3765271</v>
+        <v>2793490405.116065</v>
       </c>
       <c r="CA5">
-        <v>449108963.9005661</v>
+        <v>2854817973.695644</v>
       </c>
       <c r="CB5">
-        <v>456564362.5489184</v>
+        <v>2915164291.49313</v>
       </c>
       <c r="CC5">
-        <v>463804745.3365015</v>
+        <v>2974703519.293558</v>
       </c>
       <c r="CD5">
-        <v>470873024.4453633</v>
+        <v>3033692259.905026</v>
       </c>
       <c r="CE5">
-        <v>477824325.5614742</v>
+        <v>3092448057.985269</v>
       </c>
       <c r="CF5">
-        <v>484621122.6141272</v>
+        <v>3150654381.853669</v>
       </c>
       <c r="CG5">
-        <v>491427551.4789109</v>
+        <v>3209346368.406326</v>
       </c>
       <c r="CH5">
-        <v>498305107.0564866</v>
+        <v>3268874539.454339</v>
       </c>
       <c r="CI5">
-        <v>505308449.1481133</v>
+        <v>3329553260.545232</v>
       </c>
       <c r="CJ5">
-        <v>512482311.835868</v>
+        <v>3391642746.890182</v>
       </c>
       <c r="CK5">
-        <v>519722977.2394994</v>
+        <v>3454283598.356169</v>
       </c>
       <c r="CL5">
-        <v>527186523.8808771</v>
+        <v>3518646005.789768</v>
       </c>
       <c r="CM5">
-        <v>534879291.1914479</v>
+        <v>3584769993.64565</v>
       </c>
       <c r="CN5">
-        <v>542794976.8976673</v>
+        <v>3652620176.465199</v>
       </c>
       <c r="CO5">
-        <v>550915961.3908732</v>
+        <v>3722092605.993724</v>
       </c>
     </row>
   </sheetData>
